--- a/input/base_smartsheet.xlsx
+++ b/input/base_smartsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dalberg\Documents\GitHub\covid19_vaccination_data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A13A490-F64B-4B33-90D3-B826FE31B780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6C9EC7-7AC2-4D40-AF62-21A8B6B9F994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6370" uniqueCount="1505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6376" uniqueCount="1504">
   <si>
     <t>ISO3</t>
   </si>
@@ -1395,6 +1395,12 @@
   </si>
   <si>
     <t>37/115 vaccination sites are operational. Received 200,000 doses of SinoPharm, launched 4 June; 100,000 of Pfizer doses in June. (23 Sept)</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>2021-2022</t>
   </si>
   <si>
     <t>Gavi BF 2.75M; gap 2.75M They plan to finalise BF application 24.06 at the latest to support Pfizer rollout. The amount is not yet final but it is around 1M.</t>
@@ -2894,9 +2900,6 @@
     <t>Mauritania will have difficulty using the AZ doses that expire before the end of Oct. Spain provided 240,000 doses and 110,000 doses of AZ through Covax. The country had an ambitious action plan in place to consume all doses during the month of October, with a campaign that started in early October. The campaign did not reach the expected coverage rates. As a result. 120,170 doses of AZ vaccine are likely to be expired by the end of October (bilateral and COVAX). (21 Oct) High performing to reach vaccinated with 2nd dose (30 Sept). UCC arrival expected 1 Sept. Good absorption capacity. They received on 280K AZ doses 8 Sept with short shelf-life (exp 30 Oct). They will receive Pfizer doses (around 100K) end of September. They would like to receive J&amp;J doses. (8 Sept, allocation)</t>
   </si>
   <si>
-    <t>2021-2022</t>
-  </si>
-  <si>
     <t>12 and above</t>
   </si>
   <si>
@@ -3268,9 +3271,6 @@
   </si>
   <si>
     <t>08/12/21</t>
-  </si>
-  <si>
-    <t>&gt;18 years old</t>
   </si>
   <si>
     <t>UNICEF HAC 1.0M; Gavi estimated $2M gap (6 May); no donor funding for operational costs (19 May, Gavi) Not actively participating in BF process (20 May Gavi); World Bank approval 13 May 2021 of project financing 153M; IsDB funding approval for 70M for vaccine procurement</t>
@@ -3923,9 +3923,6 @@
     <t>Receiving 10 000 doses per month from Australian government</t>
   </si>
   <si>
-    <t>adult population</t>
-  </si>
-  <si>
     <t>24k doses received expire 31-May (UNICEF, 26-Apr); Gavi flagged as having potential funding gaps (6-May), Receiving 10,000 AZ doses/month from Australian govt (18 May, region); Delivery expected 7 June 2021</t>
   </si>
   <si>
@@ -4708,7 +4705,7 @@
     <numFmt numFmtId="168" formatCode="###0;\-###0"/>
     <numFmt numFmtId="169" formatCode="###0.0;\-###0.0"/>
   </numFmts>
-  <fonts count="76" x14ac:knownFonts="1">
+  <fonts count="75" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -5088,13 +5085,8 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5121,11 +5113,6 @@
         <fgColor rgb="FFC6E7C8"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFEFF00"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -5139,7 +5126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5358,10 +5345,7 @@
     <xf numFmtId="167" fontId="73" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="74" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="75" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="74" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5685,82 +5669,82 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" customWidth="1"/>
+    <col min="3" max="3" width="11.90625" customWidth="1"/>
+    <col min="4" max="4" width="21.08984375" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="59.5703125" customWidth="1"/>
-    <col min="9" max="11" width="23.42578125" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" customWidth="1"/>
-    <col min="13" max="13" width="22.140625" customWidth="1"/>
-    <col min="14" max="17" width="23.42578125" customWidth="1"/>
-    <col min="18" max="18" width="30.28515625" customWidth="1"/>
-    <col min="19" max="20" width="23.42578125" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" customWidth="1"/>
-    <col min="23" max="23" width="23.42578125" customWidth="1"/>
-    <col min="24" max="24" width="44" customWidth="1"/>
-    <col min="25" max="25" width="15.42578125" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" customWidth="1"/>
-    <col min="27" max="27" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="59.54296875" customWidth="1"/>
+    <col min="9" max="11" width="23.453125" customWidth="1"/>
+    <col min="12" max="12" width="16.08984375" customWidth="1"/>
+    <col min="13" max="13" width="22.1796875" customWidth="1"/>
+    <col min="14" max="17" width="23.453125" customWidth="1"/>
+    <col min="18" max="18" width="30.26953125" customWidth="1"/>
+    <col min="19" max="20" width="23.453125" customWidth="1"/>
+    <col min="21" max="21" width="14.7265625" customWidth="1"/>
+    <col min="22" max="22" width="11.7265625" customWidth="1"/>
+    <col min="23" max="23" width="23.453125" customWidth="1"/>
+    <col min="24" max="24" width="44.08984375" customWidth="1"/>
+    <col min="25" max="25" width="15.453125" customWidth="1"/>
+    <col min="26" max="26" width="14.36328125" customWidth="1"/>
+    <col min="27" max="27" width="16.36328125" customWidth="1"/>
     <col min="28" max="28" width="33" customWidth="1"/>
-    <col min="29" max="29" width="23.42578125" customWidth="1"/>
-    <col min="30" max="30" width="16.85546875" customWidth="1"/>
-    <col min="31" max="31" width="12.28515625" customWidth="1"/>
-    <col min="32" max="32" width="16.5703125" customWidth="1"/>
-    <col min="33" max="33" width="18.28515625" customWidth="1"/>
-    <col min="34" max="34" width="17.7109375" customWidth="1"/>
-    <col min="35" max="35" width="20.42578125" customWidth="1"/>
+    <col min="29" max="29" width="23.453125" customWidth="1"/>
+    <col min="30" max="30" width="16.90625" customWidth="1"/>
+    <col min="31" max="31" width="12.36328125" customWidth="1"/>
+    <col min="32" max="32" width="16.54296875" customWidth="1"/>
+    <col min="33" max="33" width="18.26953125" customWidth="1"/>
+    <col min="34" max="34" width="17.6328125" customWidth="1"/>
+    <col min="35" max="35" width="20.453125" customWidth="1"/>
     <col min="36" max="36" width="18" customWidth="1"/>
-    <col min="37" max="37" width="20.140625" customWidth="1"/>
-    <col min="38" max="38" width="18.7109375" customWidth="1"/>
-    <col min="39" max="39" width="17.28515625" customWidth="1"/>
-    <col min="40" max="42" width="23.42578125" customWidth="1"/>
-    <col min="43" max="43" width="21.85546875" customWidth="1"/>
-    <col min="44" max="61" width="23.42578125" customWidth="1"/>
-    <col min="62" max="62" width="21.85546875" customWidth="1"/>
-    <col min="63" max="70" width="23.42578125" customWidth="1"/>
-    <col min="71" max="71" width="16.42578125" customWidth="1"/>
+    <col min="37" max="37" width="20.1796875" customWidth="1"/>
+    <col min="38" max="38" width="18.7265625" customWidth="1"/>
+    <col min="39" max="39" width="17.36328125" customWidth="1"/>
+    <col min="40" max="42" width="23.453125" customWidth="1"/>
+    <col min="43" max="43" width="21.90625" customWidth="1"/>
+    <col min="44" max="61" width="23.453125" customWidth="1"/>
+    <col min="62" max="62" width="21.90625" customWidth="1"/>
+    <col min="63" max="70" width="23.453125" customWidth="1"/>
+    <col min="71" max="71" width="16.36328125" customWidth="1"/>
     <col min="72" max="72" width="17" customWidth="1"/>
-    <col min="73" max="73" width="18.7109375" customWidth="1"/>
-    <col min="74" max="74" width="16" customWidth="1"/>
-    <col min="75" max="76" width="18.42578125" customWidth="1"/>
-    <col min="77" max="77" width="12.85546875" customWidth="1"/>
-    <col min="78" max="78" width="19.42578125" customWidth="1"/>
-    <col min="79" max="79" width="11.85546875" customWidth="1"/>
-    <col min="80" max="80" width="18.140625" customWidth="1"/>
-    <col min="81" max="81" width="17.140625" customWidth="1"/>
-    <col min="82" max="84" width="23.42578125" customWidth="1"/>
-    <col min="85" max="85" width="13.140625" customWidth="1"/>
-    <col min="86" max="86" width="11.42578125" customWidth="1"/>
-    <col min="87" max="87" width="18.140625" customWidth="1"/>
-    <col min="88" max="89" width="23.42578125" customWidth="1"/>
-    <col min="90" max="90" width="14.5703125" customWidth="1"/>
-    <col min="91" max="99" width="23.42578125" customWidth="1"/>
-    <col min="100" max="100" width="21.28515625" customWidth="1"/>
-    <col min="101" max="102" width="23.42578125" customWidth="1"/>
-    <col min="103" max="103" width="17.85546875" customWidth="1"/>
-    <col min="104" max="104" width="23.42578125" customWidth="1"/>
-    <col min="105" max="105" width="11.5703125" customWidth="1"/>
-    <col min="106" max="106" width="25.140625" customWidth="1"/>
-    <col min="107" max="107" width="23.42578125" customWidth="1"/>
-    <col min="108" max="108" width="17.7109375" customWidth="1"/>
-    <col min="109" max="113" width="23.42578125" customWidth="1"/>
-    <col min="114" max="114" width="19" customWidth="1"/>
-    <col min="115" max="115" width="29.5703125" customWidth="1"/>
-    <col min="116" max="116" width="18.5703125" customWidth="1"/>
-    <col min="117" max="120" width="23.42578125" customWidth="1"/>
-    <col min="121" max="121" width="34" customWidth="1"/>
-    <col min="122" max="130" width="23.42578125" customWidth="1"/>
+    <col min="73" max="73" width="18.7265625" customWidth="1"/>
+    <col min="74" max="74" width="15.90625" customWidth="1"/>
+    <col min="75" max="76" width="18.453125" customWidth="1"/>
+    <col min="77" max="77" width="12.81640625" customWidth="1"/>
+    <col min="78" max="78" width="19.36328125" customWidth="1"/>
+    <col min="79" max="79" width="11.90625" customWidth="1"/>
+    <col min="80" max="80" width="18.08984375" customWidth="1"/>
+    <col min="81" max="81" width="17.1796875" customWidth="1"/>
+    <col min="82" max="84" width="23.453125" customWidth="1"/>
+    <col min="85" max="85" width="13.08984375" customWidth="1"/>
+    <col min="86" max="86" width="11.36328125" customWidth="1"/>
+    <col min="87" max="87" width="18.08984375" customWidth="1"/>
+    <col min="88" max="89" width="23.453125" customWidth="1"/>
+    <col min="90" max="90" width="14.54296875" customWidth="1"/>
+    <col min="91" max="99" width="23.453125" customWidth="1"/>
+    <col min="100" max="100" width="21.26953125" customWidth="1"/>
+    <col min="101" max="102" width="23.453125" customWidth="1"/>
+    <col min="103" max="103" width="17.81640625" customWidth="1"/>
+    <col min="104" max="104" width="23.453125" customWidth="1"/>
+    <col min="105" max="105" width="11.54296875" customWidth="1"/>
+    <col min="106" max="106" width="25.1796875" customWidth="1"/>
+    <col min="107" max="107" width="23.453125" customWidth="1"/>
+    <col min="108" max="108" width="17.6328125" customWidth="1"/>
+    <col min="109" max="113" width="23.453125" customWidth="1"/>
+    <col min="114" max="114" width="19.08984375" customWidth="1"/>
+    <col min="115" max="115" width="29.54296875" customWidth="1"/>
+    <col min="116" max="116" width="18.6328125" customWidth="1"/>
+    <col min="117" max="120" width="23.453125" customWidth="1"/>
+    <col min="121" max="121" width="34.08984375" customWidth="1"/>
+    <col min="122" max="130" width="23.453125" customWidth="1"/>
     <col min="131" max="140" width="8" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:140" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:140" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6182,7 +6166,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>140</v>
       </c>
@@ -6490,7 +6474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:140" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:140" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>175</v>
       </c>
@@ -6714,7 +6698,7 @@
       <c r="EI3" s="8"/>
       <c r="EJ3" s="12"/>
     </row>
-    <row r="4" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>183</v>
       </c>
@@ -6996,7 +6980,7 @@
       <c r="EI4" s="8"/>
       <c r="EJ4" s="12"/>
     </row>
-    <row r="5" spans="1:140" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:140" ht="31" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>207</v>
       </c>
@@ -7208,7 +7192,7 @@
       <c r="EI5" s="8"/>
       <c r="EJ5" s="12"/>
     </row>
-    <row r="6" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>211</v>
       </c>
@@ -7500,7 +7484,7 @@
       <c r="EI6" s="8"/>
       <c r="EJ6" s="12"/>
     </row>
-    <row r="7" spans="1:140" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:140" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>228</v>
       </c>
@@ -7724,7 +7708,7 @@
       <c r="EI7" s="8"/>
       <c r="EJ7" s="12"/>
     </row>
-    <row r="8" spans="1:140" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:140" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>233</v>
       </c>
@@ -7966,7 +7950,7 @@
       <c r="EI8" s="8"/>
       <c r="EJ8" s="12"/>
     </row>
-    <row r="9" spans="1:140" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:140" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>239</v>
       </c>
@@ -8184,7 +8168,7 @@
       <c r="EI9" s="8"/>
       <c r="EJ9" s="12"/>
     </row>
-    <row r="10" spans="1:140" ht="18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:140" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>244</v>
       </c>
@@ -8396,7 +8380,7 @@
       <c r="EI10" s="8"/>
       <c r="EJ10" s="12"/>
     </row>
-    <row r="11" spans="1:140" ht="18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:140" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>244</v>
       </c>
@@ -8608,7 +8592,7 @@
       <c r="EI11" s="8"/>
       <c r="EJ11" s="12"/>
     </row>
-    <row r="12" spans="1:140" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:140" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>250</v>
       </c>
@@ -8842,7 +8826,7 @@
       <c r="EI12" s="8"/>
       <c r="EJ12" s="12"/>
     </row>
-    <row r="13" spans="1:140" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:140" ht="31" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>254</v>
       </c>
@@ -9052,7 +9036,7 @@
       <c r="EI13" s="8"/>
       <c r="EJ13" s="12"/>
     </row>
-    <row r="14" spans="1:140" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:140" ht="31" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>257</v>
       </c>
@@ -9262,7 +9246,7 @@
       <c r="EI14" s="8"/>
       <c r="EJ14" s="12"/>
     </row>
-    <row r="15" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>260</v>
       </c>
@@ -9556,7 +9540,7 @@
       <c r="EI15" s="8"/>
       <c r="EJ15" s="12"/>
     </row>
-    <row r="16" spans="1:140" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:140" ht="31" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
         <v>277</v>
       </c>
@@ -9774,7 +9758,7 @@
       <c r="EI16" s="8"/>
       <c r="EJ16" s="12"/>
     </row>
-    <row r="17" spans="1:140" ht="18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:140" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
         <v>280</v>
       </c>
@@ -9984,7 +9968,7 @@
       <c r="EI17" s="8"/>
       <c r="EJ17" s="12"/>
     </row>
-    <row r="18" spans="1:140" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:140" ht="31" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>284</v>
       </c>
@@ -10212,7 +10196,7 @@
       <c r="EI18" s="8"/>
       <c r="EJ18" s="12"/>
     </row>
-    <row r="19" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>287</v>
       </c>
@@ -10510,7 +10494,7 @@
       <c r="EI19" s="8"/>
       <c r="EJ19" s="12"/>
     </row>
-    <row r="20" spans="1:140" ht="102" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:140" ht="100" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>307</v>
       </c>
@@ -10774,7 +10758,7 @@
       <c r="EI20" s="8"/>
       <c r="EJ20" s="12"/>
     </row>
-    <row r="21" spans="1:140" ht="390" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:140" ht="387.5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>321</v>
       </c>
@@ -11038,7 +11022,7 @@
       <c r="EI21" s="8"/>
       <c r="EJ21" s="12"/>
     </row>
-    <row r="22" spans="1:140" ht="90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:140" ht="93" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>329</v>
       </c>
@@ -11282,7 +11266,7 @@
       <c r="EI22" s="8"/>
       <c r="EJ22" s="12"/>
     </row>
-    <row r="23" spans="1:140" ht="18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:140" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
         <v>335</v>
       </c>
@@ -11488,7 +11472,7 @@
       <c r="EI23" s="8"/>
       <c r="EJ23" s="12"/>
     </row>
-    <row r="24" spans="1:140" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:140" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
         <v>338</v>
       </c>
@@ -11692,7 +11676,7 @@
       <c r="EI24" s="8"/>
       <c r="EJ24" s="12"/>
     </row>
-    <row r="25" spans="1:140" ht="150" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:140" ht="155" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
         <v>341</v>
       </c>
@@ -11914,7 +11898,7 @@
       <c r="EI25" s="8"/>
       <c r="EJ25" s="12"/>
     </row>
-    <row r="26" spans="1:140" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:140" ht="25" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
         <v>345</v>
       </c>
@@ -12118,7 +12102,7 @@
       <c r="EI26" s="8"/>
       <c r="EJ26" s="12"/>
     </row>
-    <row r="27" spans="1:140" ht="18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:140" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
         <v>348</v>
       </c>
@@ -12332,7 +12316,7 @@
       <c r="EI27" s="8"/>
       <c r="EJ27" s="12"/>
     </row>
-    <row r="28" spans="1:140" ht="18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:140" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
         <v>351</v>
       </c>
@@ -12534,7 +12518,7 @@
       <c r="EI28" s="8"/>
       <c r="EJ28" s="12"/>
     </row>
-    <row r="29" spans="1:140" ht="285" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:140" ht="263.5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>353</v>
       </c>
@@ -12822,7 +12806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>366</v>
       </c>
@@ -13058,7 +13042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>373</v>
       </c>
@@ -13344,7 +13328,7 @@
       <c r="EI31" s="8"/>
       <c r="EJ31" s="12"/>
     </row>
-    <row r="32" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>387</v>
       </c>
@@ -13620,7 +13604,7 @@
       <c r="EI32" s="8"/>
       <c r="EJ32" s="12"/>
     </row>
-    <row r="33" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>398</v>
       </c>
@@ -13928,7 +13912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:140" ht="18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:140" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
         <v>417</v>
       </c>
@@ -14146,7 +14130,7 @@
       <c r="EI34" s="8"/>
       <c r="EJ34" s="12"/>
     </row>
-    <row r="35" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>424</v>
       </c>
@@ -14448,7 +14432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>443</v>
       </c>
@@ -14615,20 +14599,22 @@
         <v>299</v>
       </c>
       <c r="CD36" s="25">
-        <v>44233</v>
-      </c>
-      <c r="CE36" s="26">
-        <v>25573662</v>
-      </c>
-      <c r="CF36" s="12"/>
+        <v>44587</v>
+      </c>
+      <c r="CE36" s="42" t="s">
+        <v>450</v>
+      </c>
+      <c r="CF36" s="12" t="s">
+        <v>451</v>
+      </c>
       <c r="CG36" s="51">
-        <v>0.4</v>
+        <v>0.48</v>
       </c>
       <c r="CH36" s="52">
-        <v>44561</v>
+        <v>44926</v>
       </c>
       <c r="CI36" s="9" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="CJ36" s="28" t="s">
         <v>197</v>
@@ -14692,7 +14678,7 @@
         <v>434</v>
       </c>
       <c r="DK36" s="8" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="DL36" s="44"/>
       <c r="DM36" s="15" t="s">
@@ -14702,7 +14688,7 @@
         <v>225</v>
       </c>
       <c r="DO36" s="15" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="DP36" s="15"/>
       <c r="DQ36" s="15" t="s">
@@ -14716,7 +14702,7 @@
       </c>
       <c r="DT36" s="12"/>
       <c r="DU36" s="15" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="DV36" s="12"/>
       <c r="DW36" s="12"/>
@@ -14726,16 +14712,16 @@
       <c r="DY36" s="15"/>
       <c r="DZ36" s="12"/>
       <c r="EA36" s="8" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="EB36" s="15" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="EC36" s="8"/>
       <c r="ED36" s="8"/>
       <c r="EE36" s="8"/>
       <c r="EF36" s="8" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="EG36" s="8"/>
       <c r="EH36" s="8"/>
@@ -14744,19 +14730,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:140" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:140" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>230</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="4" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="6" t="s">
@@ -14764,7 +14750,7 @@
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="8" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="J37" s="8" t="s">
         <v>190</v>
@@ -14970,19 +14956,19 @@
       <c r="EI37" s="8"/>
       <c r="EJ37" s="12"/>
     </row>
-    <row r="38" spans="1:140" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:140" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>246</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="4" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="6" t="s">
@@ -14993,7 +14979,7 @@
         <v>158</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="8"/>
@@ -15174,19 +15160,19 @@
       <c r="EI38" s="8"/>
       <c r="EJ38" s="12"/>
     </row>
-    <row r="39" spans="1:140" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:140" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>230</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="4" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="6" t="s">
@@ -15194,7 +15180,7 @@
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="8" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="J39" s="8" t="s">
         <v>333</v>
@@ -15406,12 +15392,12 @@
       <c r="EI39" s="8"/>
       <c r="EJ39" s="12"/>
     </row>
-    <row r="40" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>185</v>
@@ -15429,10 +15415,10 @@
         <v>146</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="J40" s="8" t="s">
         <v>149</v>
@@ -15449,7 +15435,7 @@
       </c>
       <c r="Q40" s="11"/>
       <c r="R40" s="8" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="S40" s="12">
         <v>1</v>
@@ -15463,7 +15449,7 @@
       </c>
       <c r="W40" s="15"/>
       <c r="X40" s="8" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="Y40" s="16"/>
       <c r="Z40" s="47">
@@ -15646,7 +15632,7 @@
         <v>146</v>
       </c>
       <c r="DK40" s="8" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="DL40" s="44"/>
       <c r="DM40" s="15"/>
@@ -15660,7 +15646,7 @@
       <c r="DS40" s="15"/>
       <c r="DT40" s="12"/>
       <c r="DU40" s="15" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="DV40" s="12"/>
       <c r="DW40" s="12"/>
@@ -15668,10 +15654,10 @@
       <c r="DY40" s="15"/>
       <c r="DZ40" s="12"/>
       <c r="EA40" s="8" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="EB40" s="15" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="EC40" s="8"/>
       <c r="ED40" s="8"/>
@@ -15684,12 +15670,12 @@
       <c r="EI40" s="8"/>
       <c r="EJ40" s="12"/>
     </row>
-    <row r="41" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>185</v>
@@ -15698,7 +15684,7 @@
         <v>186</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>145</v>
@@ -15707,13 +15693,13 @@
         <v>146</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="8" t="s">
@@ -15725,7 +15711,7 @@
       <c r="P41" s="11"/>
       <c r="Q41" s="11"/>
       <c r="R41" s="8" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="S41" s="12">
         <v>0</v>
@@ -15739,7 +15725,7 @@
       <c r="V41" s="6"/>
       <c r="W41" s="15"/>
       <c r="X41" s="8" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="Y41" s="16"/>
       <c r="Z41" s="47">
@@ -15872,7 +15858,7 @@
         <v>0</v>
       </c>
       <c r="CM41" s="30" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="CN41" s="31" t="s">
         <v>163</v>
@@ -15914,7 +15900,7 @@
       <c r="DI41" s="39"/>
       <c r="DJ41" s="30"/>
       <c r="DK41" s="8" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="DL41" s="44"/>
       <c r="DM41" s="15" t="s">
@@ -15943,7 +15929,7 @@
       <c r="DZ41" s="12"/>
       <c r="EA41" s="8"/>
       <c r="EB41" s="8" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="EC41" s="8"/>
       <c r="ED41" s="8"/>
@@ -15958,12 +15944,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:140" ht="18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:140" ht="18" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>246</v>
@@ -16174,19 +16160,19 @@
       <c r="EI42" s="8"/>
       <c r="EJ42" s="12"/>
     </row>
-    <row r="43" spans="1:140" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:140" ht="31" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>230</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="4" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="6" t="s">
@@ -16400,12 +16386,12 @@
       <c r="EI43" s="8"/>
       <c r="EJ43" s="12"/>
     </row>
-    <row r="44" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>185</v>
@@ -16423,13 +16409,13 @@
         <v>146</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="K44" s="2" t="b">
         <v>1</v>
@@ -16442,10 +16428,10 @@
       <c r="O44" s="45"/>
       <c r="P44" s="11"/>
       <c r="Q44" s="11" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="R44" s="8" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="S44" s="12">
         <v>0</v>
@@ -16664,7 +16650,7 @@
         <v>248</v>
       </c>
       <c r="DK44" s="8" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="DL44" s="44"/>
       <c r="DM44" s="15"/>
@@ -16690,33 +16676,33 @@
       <c r="DY44" s="15"/>
       <c r="DZ44" s="12"/>
       <c r="EA44" s="8" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="EB44" s="15"/>
       <c r="EC44" s="8"/>
       <c r="ED44" s="8"/>
       <c r="EE44" s="8"/>
       <c r="EF44" s="8" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="EG44" s="8"/>
       <c r="EH44" s="8"/>
       <c r="EI44" s="8"/>
       <c r="EJ44" s="12"/>
     </row>
-    <row r="45" spans="1:140" ht="18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:140" ht="18" x14ac:dyDescent="0.35">
       <c r="A45" s="12" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="4" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="6" t="s">
@@ -16906,19 +16892,19 @@
       <c r="EI45" s="8"/>
       <c r="EJ45" s="12"/>
     </row>
-    <row r="46" spans="1:140" ht="300" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:140" ht="294.5" x14ac:dyDescent="0.35">
       <c r="A46" s="12" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>230</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="4" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="F46" s="5"/>
       <c r="G46" s="6" t="s">
@@ -17094,7 +17080,7 @@
       <c r="DY46" s="15"/>
       <c r="DZ46" s="12"/>
       <c r="EA46" s="8" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="EB46" s="15"/>
       <c r="EC46" s="8"/>
@@ -17106,19 +17092,19 @@
       <c r="EI46" s="8"/>
       <c r="EJ46" s="12"/>
     </row>
-    <row r="47" spans="1:140" ht="18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:140" ht="18" x14ac:dyDescent="0.35">
       <c r="A47" s="12" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="4" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="6" t="s">
@@ -17300,19 +17286,19 @@
       <c r="EI47" s="8"/>
       <c r="EJ47" s="12"/>
     </row>
-    <row r="48" spans="1:140" ht="18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:140" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" s="12" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="4" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="6" t="s">
@@ -17504,19 +17490,19 @@
       <c r="EI48" s="8"/>
       <c r="EJ48" s="12"/>
     </row>
-    <row r="49" spans="1:140" ht="18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:140" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" s="12" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="4" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="6" t="s">
@@ -17704,12 +17690,12 @@
       <c r="EI49" s="8"/>
       <c r="EJ49" s="12"/>
     </row>
-    <row r="50" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>142</v>
@@ -17727,7 +17713,7 @@
         <v>146</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="I50" s="8" t="s">
         <v>401</v>
@@ -17747,13 +17733,13 @@
         <v>10000</v>
       </c>
       <c r="P50" s="11" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="Q50" s="11" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="R50" s="8" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="S50" s="12"/>
       <c r="T50" s="13" t="s">
@@ -17763,7 +17749,7 @@
       <c r="V50" s="6"/>
       <c r="W50" s="15"/>
       <c r="X50" s="8" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="Y50" s="16"/>
       <c r="Z50" s="47">
@@ -17911,7 +17897,7 @@
       <c r="CR50" s="35"/>
       <c r="CS50" s="36"/>
       <c r="CT50" s="15" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="CU50" s="12">
         <v>33679193</v>
@@ -17944,7 +17930,7 @@
       </c>
       <c r="DL50" s="44"/>
       <c r="DM50" s="15" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="DN50" s="9" t="s">
         <v>302</v>
@@ -17964,14 +17950,14 @@
       <c r="DY50" s="15"/>
       <c r="DZ50" s="12"/>
       <c r="EA50" s="8" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="EB50" s="15"/>
       <c r="EC50" s="8"/>
       <c r="ED50" s="8"/>
       <c r="EE50" s="8"/>
       <c r="EF50" s="8" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="EG50" s="8"/>
       <c r="EH50" s="8"/>
@@ -17980,12 +17966,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>230</v>
@@ -17994,7 +17980,7 @@
         <v>166</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>221</v>
@@ -18004,7 +17990,7 @@
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="8" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="J51" s="8" t="s">
         <v>232</v>
@@ -18142,7 +18128,7 @@
         <v>160</v>
       </c>
       <c r="CC51" s="11" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="CD51" s="25">
         <v>44274</v>
@@ -18175,7 +18161,7 @@
         <v>198</v>
       </c>
       <c r="CR51" s="35" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="CS51" s="54">
         <v>230000</v>
@@ -18202,7 +18188,7 @@
       <c r="DI51" s="39"/>
       <c r="DJ51" s="30"/>
       <c r="DK51" s="8" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="DL51" s="44"/>
       <c r="DM51" s="15"/>
@@ -18220,7 +18206,7 @@
       <c r="DY51" s="15"/>
       <c r="DZ51" s="12"/>
       <c r="EA51" s="8" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="EB51" s="15"/>
       <c r="EC51" s="8"/>
@@ -18232,19 +18218,19 @@
       <c r="EI51" s="8"/>
       <c r="EJ51" s="12"/>
     </row>
-    <row r="52" spans="1:140" ht="60" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:140" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A52" s="12" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>230</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="4" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F52" s="5"/>
       <c r="G52" s="6" t="s">
@@ -18456,12 +18442,12 @@
       <c r="EI52" s="8"/>
       <c r="EJ52" s="12"/>
     </row>
-    <row r="53" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>262</v>
@@ -18475,13 +18461,13 @@
         <v>248</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="J53" s="8" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="K53" s="2"/>
       <c r="L53" s="8" t="s">
@@ -18493,7 +18479,7 @@
       <c r="P53" s="11"/>
       <c r="Q53" s="11"/>
       <c r="R53" s="8" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="S53" s="12" t="s">
         <v>158</v>
@@ -18509,7 +18495,7 @@
       </c>
       <c r="W53" s="15"/>
       <c r="X53" s="8" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="Y53" s="16"/>
       <c r="Z53" s="55" t="s">
@@ -18659,14 +18645,14 @@
       <c r="DH53" s="30"/>
       <c r="DI53" s="39"/>
       <c r="DJ53" s="30" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="DK53" s="8"/>
       <c r="DL53" s="44"/>
       <c r="DM53" s="15"/>
       <c r="DN53" s="9"/>
       <c r="DO53" s="12" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="DP53" s="15"/>
       <c r="DQ53" s="15" t="s">
@@ -18682,26 +18668,26 @@
       <c r="DY53" s="15"/>
       <c r="DZ53" s="12"/>
       <c r="EA53" s="8" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="EB53" s="15"/>
       <c r="EC53" s="8"/>
       <c r="ED53" s="8"/>
       <c r="EE53" s="8"/>
       <c r="EF53" s="8" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="EG53" s="8"/>
       <c r="EH53" s="8"/>
       <c r="EI53" s="8"/>
       <c r="EJ53" s="12"/>
     </row>
-    <row r="54" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B54" s="63" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>185</v>
@@ -18710,7 +18696,7 @@
         <v>143</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>145</v>
@@ -18719,13 +18705,13 @@
         <v>146</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="I54" s="8" t="s">
         <v>377</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="K54" s="2" t="b">
         <v>1</v>
@@ -18741,13 +18727,13 @@
         <v>186740</v>
       </c>
       <c r="P54" s="11" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="Q54" s="11" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="R54" s="8" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="S54" s="12">
         <v>0</v>
@@ -18761,7 +18747,7 @@
       <c r="V54" s="6"/>
       <c r="W54" s="15"/>
       <c r="X54" s="8" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="Y54" s="16"/>
       <c r="Z54" s="47">
@@ -18950,11 +18936,11 @@
         <v>434</v>
       </c>
       <c r="DK54" s="8" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="DL54" s="44"/>
       <c r="DM54" s="15" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="DN54" s="9" t="s">
         <v>302</v>
@@ -18965,7 +18951,7 @@
       <c r="DP54" s="15"/>
       <c r="DQ54" s="15"/>
       <c r="DR54" s="64" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="DS54" s="15"/>
       <c r="DT54" s="12"/>
@@ -18976,18 +18962,18 @@
         <v>319</v>
       </c>
       <c r="DY54" s="15" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="DZ54" s="12"/>
       <c r="EA54" s="8" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="EB54" s="15"/>
       <c r="EC54" s="8"/>
       <c r="ED54" s="8"/>
       <c r="EE54" s="8"/>
       <c r="EF54" s="8" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="EG54" s="8"/>
       <c r="EH54" s="8"/>
@@ -18996,12 +18982,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:140" ht="60" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:140" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A55" s="12" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>230</v>
@@ -19016,7 +19002,7 @@
       </c>
       <c r="H55" s="7"/>
       <c r="I55" s="8" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="J55" s="8" t="s">
         <v>333</v>
@@ -19234,12 +19220,12 @@
       <c r="EI55" s="8"/>
       <c r="EJ55" s="12"/>
     </row>
-    <row r="56" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>142</v>
@@ -19248,7 +19234,7 @@
         <v>186</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>221</v>
@@ -19258,14 +19244,14 @@
       </c>
       <c r="H56" s="7"/>
       <c r="I56" s="8" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="J56" s="8" t="s">
         <v>180</v>
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="8" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="M56" s="8"/>
       <c r="N56" s="9"/>
@@ -19273,7 +19259,7 @@
       <c r="P56" s="11"/>
       <c r="Q56" s="11"/>
       <c r="R56" s="8" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="S56" s="12"/>
       <c r="T56" s="13"/>
@@ -19281,7 +19267,7 @@
       <c r="V56" s="6"/>
       <c r="W56" s="15"/>
       <c r="X56" s="8" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="Y56" s="16"/>
       <c r="Z56" s="47">
@@ -19427,7 +19413,7 @@
         <v>198</v>
       </c>
       <c r="CR56" s="35" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="CS56" s="54">
         <v>4499931</v>
@@ -19460,7 +19446,7 @@
       <c r="DI56" s="39"/>
       <c r="DJ56" s="30"/>
       <c r="DK56" s="8" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="DL56" s="44"/>
       <c r="DM56" s="15"/>
@@ -19482,7 +19468,7 @@
       <c r="DY56" s="15"/>
       <c r="DZ56" s="12"/>
       <c r="EA56" s="8" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="EB56" s="15"/>
       <c r="EC56" s="8"/>
@@ -19494,12 +19480,12 @@
       <c r="EI56" s="8"/>
       <c r="EJ56" s="12"/>
     </row>
-    <row r="57" spans="1:140" ht="375" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:140" ht="372" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>230</v>
@@ -19508,7 +19494,7 @@
         <v>186</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>193</v>
@@ -19518,14 +19504,14 @@
       </c>
       <c r="H57" s="7"/>
       <c r="I57" s="8" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="J57" s="8" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="K57" s="2"/>
       <c r="L57" s="8" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="M57" s="8"/>
       <c r="N57" s="9"/>
@@ -19543,7 +19529,7 @@
       <c r="V57" s="6"/>
       <c r="W57" s="15"/>
       <c r="X57" s="8" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="Y57" s="16"/>
       <c r="Z57" s="47">
@@ -19593,7 +19579,7 @@
         <v>302400</v>
       </c>
       <c r="AP57" s="2" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AQ57" s="19">
         <v>44438</v>
@@ -19602,7 +19588,7 @@
         <v>96000</v>
       </c>
       <c r="AS57" s="2" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="AT57" s="19">
         <v>44468</v>
@@ -19611,7 +19597,7 @@
         <v>1500100</v>
       </c>
       <c r="AV57" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AW57" s="19">
         <v>44527</v>
@@ -19620,7 +19606,7 @@
         <v>1500100</v>
       </c>
       <c r="AY57" s="2" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="AZ57" s="12"/>
       <c r="BA57" s="12"/>
@@ -19746,7 +19732,7 @@
       <c r="DI57" s="39"/>
       <c r="DJ57" s="30"/>
       <c r="DK57" s="8" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="DL57" s="44"/>
       <c r="DM57" s="15"/>
@@ -19768,7 +19754,7 @@
       <c r="DY57" s="15"/>
       <c r="DZ57" s="12"/>
       <c r="EA57" s="8" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="EB57" s="15"/>
       <c r="EC57" s="8"/>
@@ -19780,12 +19766,12 @@
       <c r="EI57" s="8"/>
       <c r="EJ57" s="12"/>
     </row>
-    <row r="58" spans="1:140" ht="150" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:140" ht="139.5" x14ac:dyDescent="0.35">
       <c r="A58" s="12" t="s">
         <v>244</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>185</v>
@@ -19986,7 +19972,7 @@
       <c r="DY58" s="15"/>
       <c r="DZ58" s="12"/>
       <c r="EA58" s="8" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="EB58" s="15"/>
       <c r="EC58" s="8"/>
@@ -19998,12 +19984,12 @@
       <c r="EI58" s="8"/>
       <c r="EJ58" s="12"/>
     </row>
-    <row r="59" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>185</v>
@@ -20017,7 +20003,7 @@
         <v>248</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="I59" s="8" t="s">
         <v>158</v>
@@ -20045,7 +20031,7 @@
       </c>
       <c r="W59" s="15"/>
       <c r="X59" s="8" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="Y59" s="16"/>
       <c r="Z59" s="55" t="s">
@@ -20210,7 +20196,7 @@
       <c r="DY59" s="15"/>
       <c r="DZ59" s="12"/>
       <c r="EA59" s="8" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="EB59" s="15"/>
       <c r="EC59" s="8"/>
@@ -20222,12 +20208,12 @@
       <c r="EI59" s="8"/>
       <c r="EJ59" s="12"/>
     </row>
-    <row r="60" spans="1:140" ht="18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:140" ht="18" x14ac:dyDescent="0.35">
       <c r="A60" s="12" t="s">
         <v>244</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>177</v>
@@ -20430,12 +20416,12 @@
       <c r="EI60" s="8"/>
       <c r="EJ60" s="12"/>
     </row>
-    <row r="61" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>185</v>
@@ -20453,7 +20439,7 @@
         <v>146</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="I61" s="8" t="s">
         <v>401</v>
@@ -20470,10 +20456,10 @@
       <c r="O61" s="45"/>
       <c r="P61" s="11"/>
       <c r="Q61" s="11" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="R61" s="8" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="S61" s="12">
         <v>0</v>
@@ -20535,7 +20521,7 @@
         <v>302400</v>
       </c>
       <c r="AP61" s="12" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="AQ61" s="19">
         <v>44525</v>
@@ -20614,10 +20600,10 @@
         <v>44459</v>
       </c>
       <c r="CE61" s="42" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="CF61" s="12" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="CG61" s="51">
         <v>0.4</v>
@@ -20651,7 +20637,7 @@
         <v>198</v>
       </c>
       <c r="CR61" s="35" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="CS61" s="54">
         <v>230000</v>
@@ -20690,7 +20676,7 @@
       </c>
       <c r="DJ61" s="30"/>
       <c r="DK61" s="8" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="DL61" s="44"/>
       <c r="DM61" s="15" t="s">
@@ -20716,14 +20702,14 @@
       <c r="DY61" s="15"/>
       <c r="DZ61" s="12"/>
       <c r="EA61" s="8" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="EB61" s="15"/>
       <c r="EC61" s="8"/>
       <c r="ED61" s="8"/>
       <c r="EE61" s="8"/>
       <c r="EF61" s="8" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="EG61" s="8"/>
       <c r="EH61" s="8"/>
@@ -20732,12 +20718,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>185</v>
@@ -20746,7 +20732,7 @@
         <v>143</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>145</v>
@@ -20755,13 +20741,13 @@
         <v>146</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="J62" s="8" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="8" t="s">
@@ -20772,16 +20758,16 @@
         <v>151</v>
       </c>
       <c r="O62" s="45" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="Q62" s="11" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="R62" s="8" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="S62" s="12">
         <v>1</v>
@@ -20845,7 +20831,7 @@
         <v>1210550</v>
       </c>
       <c r="AP62" s="12" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="AQ62" s="19">
         <v>44525</v>
@@ -20998,19 +20984,19 @@
         <v>146</v>
       </c>
       <c r="DK62" s="8" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="DL62" s="44" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="DM62" s="15" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="DN62" s="9" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="DO62" s="15" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="DP62" s="15"/>
       <c r="DQ62" s="15"/>
@@ -21024,18 +21010,18 @@
         <v>319</v>
       </c>
       <c r="DY62" s="15" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="DZ62" s="12"/>
       <c r="EA62" s="8" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="EB62" s="15"/>
       <c r="EC62" s="8"/>
       <c r="ED62" s="8"/>
       <c r="EE62" s="8"/>
       <c r="EF62" s="8" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="EG62" s="8"/>
       <c r="EH62" s="8"/>
@@ -21044,12 +21030,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>246</v>
@@ -21058,7 +21044,7 @@
         <v>166</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>193</v>
@@ -21067,13 +21053,13 @@
         <v>146</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="J63" s="8" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="K63" s="2"/>
       <c r="L63" s="8"/>
@@ -21082,10 +21068,10 @@
       <c r="O63" s="45"/>
       <c r="P63" s="11"/>
       <c r="Q63" s="11" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="R63" s="8" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="S63" s="12"/>
       <c r="T63" s="13"/>
@@ -21093,7 +21079,7 @@
       <c r="V63" s="6"/>
       <c r="W63" s="15"/>
       <c r="X63" s="8" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="Y63" s="16"/>
       <c r="Z63" s="47">
@@ -21141,7 +21127,7 @@
         <v>2400</v>
       </c>
       <c r="AP63" s="12" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="AQ63" s="20">
         <v>44468</v>
@@ -21150,14 +21136,14 @@
         <v>150080</v>
       </c>
       <c r="AS63" s="2" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AT63" s="12"/>
       <c r="AU63" s="12">
         <v>43200</v>
       </c>
       <c r="AV63" s="2" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="AW63" s="12"/>
       <c r="AX63" s="12"/>
@@ -21247,7 +21233,7 @@
         <v>198</v>
       </c>
       <c r="CR63" s="35" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="CS63" s="54">
         <v>230000</v>
@@ -21300,7 +21286,7 @@
       <c r="DY63" s="15"/>
       <c r="DZ63" s="12"/>
       <c r="EA63" s="8" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="EB63" s="15"/>
       <c r="EC63" s="8"/>
@@ -21312,19 +21298,19 @@
       <c r="EI63" s="8"/>
       <c r="EJ63" s="12"/>
     </row>
-    <row r="64" spans="1:140" ht="18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:140" ht="18" x14ac:dyDescent="0.35">
       <c r="A64" s="12" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="4" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F64" s="5"/>
       <c r="G64" s="6" t="s">
@@ -21516,19 +21502,19 @@
       <c r="EI64" s="8"/>
       <c r="EJ64" s="12"/>
     </row>
-    <row r="65" spans="1:140" ht="18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:140" ht="18" x14ac:dyDescent="0.35">
       <c r="A65" s="12" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="4" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="F65" s="5"/>
       <c r="G65" s="6" t="s">
@@ -21720,19 +21706,19 @@
       <c r="EI65" s="8"/>
       <c r="EJ65" s="12"/>
     </row>
-    <row r="66" spans="1:140" ht="120" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:140" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A66" s="12" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="4" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="F66" s="5"/>
       <c r="G66" s="6" t="s">
@@ -21740,10 +21726,10 @@
       </c>
       <c r="H66" s="7"/>
       <c r="I66" s="8" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="J66" s="8" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="K66" s="2"/>
       <c r="L66" s="8"/>
@@ -21928,7 +21914,7 @@
       <c r="DY66" s="15"/>
       <c r="DZ66" s="12"/>
       <c r="EA66" s="8" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="EB66" s="15"/>
       <c r="EC66" s="8"/>
@@ -21940,12 +21926,12 @@
       <c r="EI66" s="8"/>
       <c r="EJ66" s="12"/>
     </row>
-    <row r="67" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>185</v>
@@ -21954,7 +21940,7 @@
         <v>143</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>145</v>
@@ -21963,7 +21949,7 @@
         <v>146</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="I67" s="8" t="s">
         <v>401</v>
@@ -21980,16 +21966,16 @@
         <v>151</v>
       </c>
       <c r="O67" s="45" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="P67" s="11" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="Q67" s="11" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="R67" s="8" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="S67" s="12">
         <v>0</v>
@@ -22190,7 +22176,7 @@
         <v>146</v>
       </c>
       <c r="DK67" s="8" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="DL67" s="44"/>
       <c r="DM67" s="15"/>
@@ -22206,7 +22192,7 @@
       <c r="DS67" s="15"/>
       <c r="DT67" s="12"/>
       <c r="DU67" s="15" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="DV67" s="12"/>
       <c r="DW67" s="12"/>
@@ -22216,39 +22202,39 @@
       <c r="DY67" s="15"/>
       <c r="DZ67" s="12"/>
       <c r="EA67" s="8" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="EB67" s="15"/>
       <c r="EC67" s="8"/>
       <c r="ED67" s="8"/>
       <c r="EE67" s="8"/>
       <c r="EF67" s="8" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="EG67" s="8" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="EH67" s="8" t="s">
         <v>442</v>
       </c>
       <c r="EI67" s="8" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="EJ67" s="12"/>
     </row>
-    <row r="68" spans="1:140" ht="315" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:140" ht="294.5" x14ac:dyDescent="0.35">
       <c r="A68" s="12" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="4" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="F68" s="5"/>
       <c r="G68" s="6" t="s">
@@ -22446,7 +22432,7 @@
       <c r="DY68" s="15"/>
       <c r="DZ68" s="12"/>
       <c r="EA68" s="8" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="EB68" s="15"/>
       <c r="EC68" s="8"/>
@@ -22458,19 +22444,19 @@
       <c r="EI68" s="8"/>
       <c r="EJ68" s="12"/>
     </row>
-    <row r="69" spans="1:140" ht="18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:140" ht="18" x14ac:dyDescent="0.35">
       <c r="A69" s="12" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="4" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F69" s="5"/>
       <c r="G69" s="6" t="s">
@@ -22652,12 +22638,12 @@
       <c r="EI69" s="8"/>
       <c r="EJ69" s="12"/>
     </row>
-    <row r="70" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>185</v>
@@ -22675,13 +22661,13 @@
         <v>146</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="I70" s="8" t="s">
         <v>324</v>
       </c>
       <c r="J70" s="8" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="8" t="s">
@@ -22692,16 +22678,16 @@
         <v>151</v>
       </c>
       <c r="O70" s="45" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="P70" s="11" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="Q70" s="8" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="R70" s="8" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="S70" s="12">
         <v>0</v>
@@ -22714,7 +22700,7 @@
       </c>
       <c r="V70" s="6"/>
       <c r="W70" s="15" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="X70" s="8" t="s">
         <v>298</v>
@@ -22865,7 +22851,7 @@
         <v>2211196</v>
       </c>
       <c r="CP70" s="33">
-        <v>2108935</v>
+        <v>2121381</v>
       </c>
       <c r="CQ70" s="34" t="s">
         <v>164</v>
@@ -22906,7 +22892,7 @@
         <v>146</v>
       </c>
       <c r="DK70" s="8" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="DL70" s="44"/>
       <c r="DM70" s="15"/>
@@ -22932,33 +22918,33 @@
       <c r="DY70" s="15"/>
       <c r="DZ70" s="12"/>
       <c r="EA70" s="8" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="EB70" s="15"/>
       <c r="EC70" s="8"/>
       <c r="ED70" s="8"/>
       <c r="EE70" s="8"/>
       <c r="EF70" s="8" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="EG70" s="8"/>
       <c r="EH70" s="8"/>
       <c r="EI70" s="8"/>
       <c r="EJ70" s="12"/>
     </row>
-    <row r="71" spans="1:140" ht="18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:140" ht="18" x14ac:dyDescent="0.35">
       <c r="A71" s="12" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="4" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F71" s="5"/>
       <c r="G71" s="6" t="s">
@@ -23142,12 +23128,12 @@
       <c r="EI71" s="8"/>
       <c r="EJ71" s="12"/>
     </row>
-    <row r="72" spans="1:140" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:140" ht="31" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>230</v>
@@ -23156,7 +23142,7 @@
         <v>166</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>221</v>
@@ -23180,10 +23166,10 @@
         <v>151</v>
       </c>
       <c r="O72" s="45" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="P72" s="11" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="Q72" s="11"/>
       <c r="R72" s="8"/>
@@ -23322,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="CM72" s="30" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="CN72" s="31" t="s">
         <v>163</v>
@@ -23366,7 +23352,7 @@
       <c r="DI72" s="39"/>
       <c r="DJ72" s="30"/>
       <c r="DK72" s="8" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="DL72" s="44"/>
       <c r="DM72" s="15"/>
@@ -23394,19 +23380,19 @@
       <c r="EI72" s="8"/>
       <c r="EJ72" s="12"/>
     </row>
-    <row r="73" spans="1:140" ht="75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:140" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A73" s="12" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>230</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="4" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="F73" s="5"/>
       <c r="G73" s="6" t="s">
@@ -23634,12 +23620,12 @@
       <c r="EI73" s="8"/>
       <c r="EJ73" s="12"/>
     </row>
-    <row r="74" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>185</v>
@@ -23648,7 +23634,7 @@
         <v>143</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>145</v>
@@ -23657,13 +23643,13 @@
         <v>146</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="I74" s="8" t="s">
         <v>291</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="8" t="s">
@@ -23673,13 +23659,13 @@
       <c r="N74" s="9"/>
       <c r="O74" s="45"/>
       <c r="P74" s="11" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="Q74" s="8" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="R74" s="8" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="S74" s="12">
         <v>1</v>
@@ -23694,7 +23680,7 @@
         <v>145</v>
       </c>
       <c r="W74" s="15" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="X74" s="8"/>
       <c r="Y74" s="16"/>
@@ -23825,7 +23811,7 @@
         <v>13076724</v>
       </c>
       <c r="CL74" s="22" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="CM74" s="30" t="s">
         <v>300</v>
@@ -23874,7 +23860,7 @@
         <v>146</v>
       </c>
       <c r="DK74" s="8" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="DL74" s="44"/>
       <c r="DM74" s="15" t="s">
@@ -23900,7 +23886,7 @@
       <c r="DY74" s="15"/>
       <c r="DZ74" s="12"/>
       <c r="EA74" s="8" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="EB74" s="15"/>
       <c r="EC74" s="8"/>
@@ -23914,12 +23900,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>185</v>
@@ -23928,7 +23914,7 @@
         <v>143</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>145</v>
@@ -23937,7 +23923,7 @@
         <v>146</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="I75" s="8" t="s">
         <v>148</v>
@@ -23951,19 +23937,19 @@
       </c>
       <c r="M75" s="8"/>
       <c r="N75" s="9" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="O75" s="45" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="P75" s="11" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="Q75" s="11" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="R75" s="8" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="S75" s="12">
         <v>0</v>
@@ -24162,7 +24148,7 @@
         <v>146</v>
       </c>
       <c r="DK75" s="8" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="DL75" s="44"/>
       <c r="DM75" s="15" t="s">
@@ -24188,14 +24174,14 @@
       <c r="DY75" s="15"/>
       <c r="DZ75" s="12"/>
       <c r="EA75" s="8" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="EB75" s="15"/>
       <c r="EC75" s="8"/>
       <c r="ED75" s="8"/>
       <c r="EE75" s="8"/>
       <c r="EF75" s="8" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="EG75" s="8"/>
       <c r="EH75" s="8"/>
@@ -24204,12 +24190,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:140" ht="105" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:140" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>230</v>
@@ -24235,7 +24221,7 @@
       </c>
       <c r="K76" s="2"/>
       <c r="L76" s="8" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="M76" s="8"/>
       <c r="N76" s="9"/>
@@ -24249,7 +24235,7 @@
       <c r="V76" s="6"/>
       <c r="W76" s="15"/>
       <c r="X76" s="8" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="Y76" s="16"/>
       <c r="Z76" s="47">
@@ -24299,7 +24285,7 @@
         <v>38400</v>
       </c>
       <c r="AP76" s="2" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="AQ76" s="12"/>
       <c r="AR76" s="12"/>
@@ -24434,7 +24420,7 @@
       <c r="DI76" s="39"/>
       <c r="DJ76" s="30"/>
       <c r="DK76" s="8" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="DL76" s="44"/>
       <c r="DM76" s="15"/>
@@ -24452,7 +24438,7 @@
       <c r="DY76" s="15"/>
       <c r="DZ76" s="12"/>
       <c r="EA76" s="8" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="EB76" s="15"/>
       <c r="EC76" s="8"/>
@@ -24464,12 +24450,12 @@
       <c r="EI76" s="8"/>
       <c r="EJ76" s="12"/>
     </row>
-    <row r="77" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>230</v>
@@ -24478,7 +24464,7 @@
         <v>143</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>145</v>
@@ -24487,13 +24473,13 @@
         <v>146</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="J77" s="8" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="K77" s="2"/>
       <c r="L77" s="8" t="s">
@@ -24504,16 +24490,16 @@
         <v>311</v>
       </c>
       <c r="O77" s="45" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="P77" s="11" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="Q77" s="8" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="R77" s="8" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="S77" s="12"/>
       <c r="T77" s="13" t="s">
@@ -24523,7 +24509,7 @@
       <c r="V77" s="6"/>
       <c r="W77" s="15"/>
       <c r="X77" s="8" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="Y77" s="16"/>
       <c r="Z77" s="47">
@@ -24661,7 +24647,7 @@
       <c r="CR77" s="35"/>
       <c r="CS77" s="36"/>
       <c r="CT77" s="15" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="CU77" s="12">
         <v>85611818</v>
@@ -24692,7 +24678,7 @@
         <v>146</v>
       </c>
       <c r="DK77" s="8" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="DL77" s="44"/>
       <c r="DM77" s="15" t="s">
@@ -24714,38 +24700,38 @@
       <c r="DY77" s="15"/>
       <c r="DZ77" s="12"/>
       <c r="EA77" s="8" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="EB77" s="15"/>
       <c r="EC77" s="8" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="ED77" s="8"/>
       <c r="EE77" s="8" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="EF77" s="8" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="EG77" s="8" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="EH77" s="8" t="s">
         <v>442</v>
       </c>
       <c r="EI77" s="8" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="EJ77" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>230</v>
@@ -24754,7 +24740,7 @@
         <v>186</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>221</v>
@@ -24764,10 +24750,10 @@
       </c>
       <c r="H78" s="7"/>
       <c r="I78" s="8" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="J78" s="8" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="8" t="s">
@@ -24791,7 +24777,7 @@
       </c>
       <c r="W78" s="15"/>
       <c r="X78" s="8" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="Y78" s="16"/>
       <c r="Z78" s="47">
@@ -24841,7 +24827,7 @@
         <v>212940</v>
       </c>
       <c r="AP78" s="2" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="AQ78" s="19">
         <v>44499</v>
@@ -24850,7 +24836,7 @@
         <v>1500000</v>
       </c>
       <c r="AS78" s="12" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="AT78" s="19">
         <v>44498</v>
@@ -24859,7 +24845,7 @@
         <v>187200</v>
       </c>
       <c r="AV78" s="2" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="AW78" s="19">
         <v>44468</v>
@@ -24868,7 +24854,7 @@
         <v>1500000</v>
       </c>
       <c r="AY78" s="2" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="AZ78" s="12"/>
       <c r="BA78" s="12"/>
@@ -24945,7 +24931,7 @@
       <c r="CJ78" s="28"/>
       <c r="CK78" s="29"/>
       <c r="CL78" s="22" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="CM78" s="30" t="s">
         <v>271</v>
@@ -24996,7 +24982,7 @@
       <c r="DI78" s="39"/>
       <c r="DJ78" s="30"/>
       <c r="DK78" s="8" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="DL78" s="44"/>
       <c r="DM78" s="15"/>
@@ -25014,7 +25000,7 @@
       <c r="DY78" s="15"/>
       <c r="DZ78" s="12"/>
       <c r="EA78" s="8" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="EB78" s="15"/>
       <c r="EC78" s="8"/>
@@ -25026,19 +25012,19 @@
       <c r="EI78" s="8"/>
       <c r="EJ78" s="12"/>
     </row>
-    <row r="79" spans="1:140" ht="18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:140" ht="18" x14ac:dyDescent="0.35">
       <c r="A79" s="12" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="4" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F79" s="5"/>
       <c r="G79" s="6" t="s">
@@ -25232,19 +25218,19 @@
       <c r="EI79" s="8"/>
       <c r="EJ79" s="12"/>
     </row>
-    <row r="80" spans="1:140" ht="18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:140" ht="18" x14ac:dyDescent="0.35">
       <c r="A80" s="12" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="4" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="F80" s="5"/>
       <c r="G80" s="6" t="s">
@@ -25428,12 +25414,12 @@
       <c r="EI80" s="8"/>
       <c r="EJ80" s="12"/>
     </row>
-    <row r="81" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>262</v>
@@ -25442,7 +25428,7 @@
         <v>186</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>193</v>
@@ -25452,14 +25438,14 @@
       </c>
       <c r="H81" s="7"/>
       <c r="I81" s="8" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="J81" s="8" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="K81" s="2"/>
       <c r="L81" s="8" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="M81" s="8"/>
       <c r="N81" s="9"/>
@@ -25479,7 +25465,7 @@
       </c>
       <c r="W81" s="15"/>
       <c r="X81" s="8" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="Y81" s="16"/>
       <c r="Z81" s="47">
@@ -25619,7 +25605,7 @@
         <v>15000000</v>
       </c>
       <c r="CP81" s="33">
-        <v>3100000</v>
+        <v>14999875</v>
       </c>
       <c r="CQ81" s="34" t="s">
         <v>164</v>
@@ -25656,7 +25642,7 @@
       <c r="DI81" s="39"/>
       <c r="DJ81" s="30"/>
       <c r="DK81" s="8" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="DL81" s="44"/>
       <c r="DM81" s="15"/>
@@ -25674,7 +25660,7 @@
       <c r="DY81" s="15"/>
       <c r="DZ81" s="12"/>
       <c r="EA81" s="8" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="EB81" s="15"/>
       <c r="EC81" s="8"/>
@@ -25686,12 +25672,12 @@
       <c r="EI81" s="8"/>
       <c r="EJ81" s="12"/>
     </row>
-    <row r="82" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>262</v>
@@ -25700,7 +25686,7 @@
         <v>186</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>221</v>
@@ -25710,21 +25696,21 @@
       </c>
       <c r="H82" s="7"/>
       <c r="I82" s="8" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="J82" s="8" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="K82" s="2"/>
       <c r="L82" s="8" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="M82" s="8"/>
       <c r="N82" s="9"/>
       <c r="O82" s="45"/>
       <c r="P82" s="11"/>
       <c r="Q82" s="11" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="R82" s="8"/>
       <c r="S82" s="12">
@@ -25739,7 +25725,7 @@
       <c r="V82" s="6"/>
       <c r="W82" s="15"/>
       <c r="X82" s="8" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="Y82" s="16"/>
       <c r="Z82" s="47">
@@ -25787,7 +25773,7 @@
         <v>1389600</v>
       </c>
       <c r="AP82" s="2" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="AQ82" s="19">
         <v>44499</v>
@@ -25796,7 +25782,7 @@
         <v>313100</v>
       </c>
       <c r="AS82" s="2" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="AT82" s="19">
         <v>44498</v>
@@ -25805,28 +25791,28 @@
         <v>1504100</v>
       </c>
       <c r="AV82" s="2" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="AW82" s="12"/>
       <c r="AX82" s="12">
         <v>3000060</v>
       </c>
       <c r="AY82" s="2" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="AZ82" s="12"/>
       <c r="BA82" s="12">
         <v>3476400</v>
       </c>
       <c r="BB82" s="2" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="BC82" s="12"/>
       <c r="BD82" s="12">
         <v>1500100</v>
       </c>
       <c r="BE82" s="2" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="BF82" s="12"/>
       <c r="BG82" s="12">
@@ -25893,7 +25879,7 @@
         <v>195</v>
       </c>
       <c r="CF82" s="12" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="CG82" s="51">
         <v>0.7</v>
@@ -25960,7 +25946,7 @@
       <c r="DI82" s="39"/>
       <c r="DJ82" s="30"/>
       <c r="DK82" s="8" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="DL82" s="44"/>
       <c r="DM82" s="15"/>
@@ -25982,33 +25968,33 @@
       <c r="DY82" s="15"/>
       <c r="DZ82" s="12"/>
       <c r="EA82" s="8" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="EB82" s="15"/>
       <c r="EC82" s="8"/>
       <c r="ED82" s="8"/>
       <c r="EE82" s="8"/>
       <c r="EF82" s="8" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="EG82" s="8"/>
       <c r="EH82" s="8"/>
       <c r="EI82" s="8"/>
       <c r="EJ82" s="12"/>
     </row>
-    <row r="83" spans="1:140" ht="45" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:140" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A83" s="12" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>142</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="4" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="F83" s="5"/>
       <c r="G83" s="6" t="s">
@@ -26226,12 +26212,12 @@
       <c r="EI83" s="8"/>
       <c r="EJ83" s="12"/>
     </row>
-    <row r="84" spans="1:140" ht="60" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:140" ht="62" x14ac:dyDescent="0.35">
       <c r="A84" s="12" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>142</v>
@@ -26246,10 +26232,10 @@
       </c>
       <c r="H84" s="7"/>
       <c r="I84" s="8" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="J84" s="8" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="K84" s="2"/>
       <c r="L84" s="8"/>
@@ -26458,19 +26444,19 @@
       <c r="EI84" s="8"/>
       <c r="EJ84" s="12"/>
     </row>
-    <row r="85" spans="1:140" ht="18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:140" ht="18" x14ac:dyDescent="0.35">
       <c r="A85" s="12" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="4" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F85" s="5"/>
       <c r="G85" s="6" t="s">
@@ -26666,12 +26652,12 @@
       <c r="EI85" s="8"/>
       <c r="EJ85" s="12"/>
     </row>
-    <row r="86" spans="1:140" ht="18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:140" ht="18" x14ac:dyDescent="0.35">
       <c r="A86" s="12" t="s">
         <v>244</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>177</v>
@@ -26876,19 +26862,19 @@
       <c r="EI86" s="8"/>
       <c r="EJ86" s="12"/>
     </row>
-    <row r="87" spans="1:140" ht="60" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:140" ht="62" x14ac:dyDescent="0.35">
       <c r="A87" s="12" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>230</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="4" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="F87" s="5"/>
       <c r="G87" s="6" t="s">
@@ -26899,7 +26885,7 @@
         <v>210</v>
       </c>
       <c r="J87" s="8" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="K87" s="2"/>
       <c r="L87" s="8"/>
@@ -27110,12 +27096,12 @@
       <c r="EI87" s="8"/>
       <c r="EJ87" s="12"/>
     </row>
-    <row r="88" spans="1:140" ht="18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:140" ht="18" x14ac:dyDescent="0.35">
       <c r="A88" s="12" t="s">
         <v>244</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>246</v>
@@ -27320,19 +27306,19 @@
       <c r="EI88" s="8"/>
       <c r="EJ88" s="12"/>
     </row>
-    <row r="89" spans="1:140" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:140" ht="31" x14ac:dyDescent="0.35">
       <c r="A89" s="12" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>142</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="4" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="F89" s="5"/>
       <c r="G89" s="6" t="s">
@@ -27550,12 +27536,12 @@
       <c r="EI89" s="8"/>
       <c r="EJ89" s="12"/>
     </row>
-    <row r="90" spans="1:140" ht="18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:140" ht="18" x14ac:dyDescent="0.35">
       <c r="A90" s="12" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>177</v>
@@ -27756,12 +27742,12 @@
       <c r="EI90" s="8"/>
       <c r="EJ90" s="12"/>
     </row>
-    <row r="91" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>185</v>
@@ -27770,7 +27756,7 @@
         <v>186</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>145</v>
@@ -27779,13 +27765,13 @@
         <v>146</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="I91" s="8" t="s">
         <v>324</v>
       </c>
       <c r="J91" s="8" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="K91" s="2" t="b">
         <v>1</v>
@@ -27799,7 +27785,7 @@
       <c r="P91" s="11"/>
       <c r="Q91" s="11"/>
       <c r="R91" s="8" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="S91" s="12">
         <v>0</v>
@@ -27812,10 +27798,10 @@
       </c>
       <c r="V91" s="6"/>
       <c r="W91" s="15" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="X91" s="8" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="Y91" s="16"/>
       <c r="Z91" s="47">
@@ -27865,7 +27851,7 @@
         <v>110400</v>
       </c>
       <c r="AP91" s="12" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="AQ91" s="12"/>
       <c r="AR91" s="12"/>
@@ -28014,10 +28000,10 @@
       <c r="DI91" s="39"/>
       <c r="DJ91" s="30"/>
       <c r="DK91" s="8" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="DL91" s="44" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="DM91" s="15"/>
       <c r="DN91" s="9" t="s">
@@ -28042,26 +28028,26 @@
       <c r="DY91" s="15"/>
       <c r="DZ91" s="12"/>
       <c r="EA91" s="8" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="EB91" s="15"/>
       <c r="EC91" s="8"/>
       <c r="ED91" s="8"/>
       <c r="EE91" s="8"/>
       <c r="EF91" s="8" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="EG91" s="8"/>
       <c r="EH91" s="8"/>
       <c r="EI91" s="8"/>
       <c r="EJ91" s="12"/>
     </row>
-    <row r="92" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>246</v>
@@ -28070,7 +28056,7 @@
         <v>186</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>221</v>
@@ -28079,7 +28065,7 @@
         <v>146</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="I92" s="8" t="s">
         <v>232</v>
@@ -28099,11 +28085,11 @@
         <v>312</v>
       </c>
       <c r="P92" s="11" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="Q92" s="11"/>
       <c r="R92" s="8" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="S92" s="12"/>
       <c r="T92" s="13"/>
@@ -28111,7 +28097,7 @@
       <c r="V92" s="6"/>
       <c r="W92" s="15"/>
       <c r="X92" s="8" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="Y92" s="16"/>
       <c r="Z92" s="47">
@@ -28290,33 +28276,33 @@
       <c r="DY92" s="15"/>
       <c r="DZ92" s="12"/>
       <c r="EA92" s="8" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="EB92" s="15"/>
       <c r="EC92" s="8"/>
       <c r="ED92" s="8"/>
       <c r="EE92" s="8"/>
       <c r="EF92" s="8" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="EG92" s="8"/>
       <c r="EH92" s="8"/>
       <c r="EI92" s="8"/>
       <c r="EJ92" s="12"/>
     </row>
-    <row r="93" spans="1:140" ht="45" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:140" ht="31" x14ac:dyDescent="0.35">
       <c r="A93" s="12" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>246</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="4" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="F93" s="5"/>
       <c r="G93" s="6" t="s">
@@ -28514,12 +28500,12 @@
       <c r="EI93" s="8"/>
       <c r="EJ93" s="12"/>
     </row>
-    <row r="94" spans="1:140" ht="45" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:140" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>177</v>
@@ -28537,13 +28523,13 @@
         <v>146</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="I94" s="8" t="s">
         <v>210</v>
       </c>
       <c r="J94" s="8" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="K94" s="2" t="b">
         <v>1</v>
@@ -28611,7 +28597,7 @@
         <v>38400</v>
       </c>
       <c r="AP94" s="12" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="AQ94" s="19">
         <v>44529</v>
@@ -28744,7 +28730,7 @@
       <c r="DI94" s="39"/>
       <c r="DJ94" s="30"/>
       <c r="DK94" s="8" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="DL94" s="44"/>
       <c r="DM94" s="15"/>
@@ -28776,19 +28762,19 @@
       <c r="EI94" s="8"/>
       <c r="EJ94" s="12"/>
     </row>
-    <row r="95" spans="1:140" ht="18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:140" ht="18" x14ac:dyDescent="0.35">
       <c r="A95" s="12" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>142</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="4" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="F95" s="5"/>
       <c r="G95" s="6" t="s">
@@ -28974,12 +28960,12 @@
       <c r="EI95" s="8"/>
       <c r="EJ95" s="12"/>
     </row>
-    <row r="96" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>177</v>
@@ -28997,13 +28983,13 @@
         <v>146</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="J96" s="8" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="K96" s="2"/>
       <c r="L96" s="8" t="s">
@@ -29017,13 +29003,13 @@
         <v>312</v>
       </c>
       <c r="P96" s="11" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="Q96" s="7" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="R96" s="8" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="S96" s="12">
         <v>1</v>
@@ -29037,7 +29023,7 @@
       </c>
       <c r="W96" s="15"/>
       <c r="X96" s="8" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="Y96" s="16"/>
       <c r="Z96" s="47">
@@ -29156,7 +29142,7 @@
         <v>44561</v>
       </c>
       <c r="CI96" s="9" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="CJ96" s="28" t="s">
         <v>407</v>
@@ -29214,7 +29200,7 @@
       <c r="DI96" s="39"/>
       <c r="DJ96" s="30"/>
       <c r="DK96" s="8" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="DL96" s="44"/>
       <c r="DM96" s="15" t="s">
@@ -29240,14 +29226,14 @@
       <c r="DY96" s="15"/>
       <c r="DZ96" s="12"/>
       <c r="EA96" s="8" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="EB96" s="15"/>
       <c r="EC96" s="8"/>
       <c r="ED96" s="8"/>
       <c r="EE96" s="8"/>
       <c r="EF96" s="8" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="EG96" s="8"/>
       <c r="EH96" s="8"/>
@@ -29256,12 +29242,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>246</v>
@@ -29270,7 +29256,7 @@
         <v>186</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>193</v>
@@ -29291,13 +29277,13 @@
       </c>
       <c r="M97" s="8"/>
       <c r="N97" s="9" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="O97" s="45" t="s">
         <v>312</v>
       </c>
       <c r="P97" s="11" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="Q97" s="11"/>
       <c r="R97" s="8"/>
@@ -29313,7 +29299,7 @@
       </c>
       <c r="W97" s="15"/>
       <c r="X97" s="8" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="Y97" s="16"/>
       <c r="Z97" s="47">
@@ -29361,7 +29347,7 @@
         <v>616820</v>
       </c>
       <c r="AP97" s="2" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="AQ97" s="19">
         <v>44488</v>
@@ -29459,7 +29445,7 @@
         <v>1185375</v>
       </c>
       <c r="CP97" s="33">
-        <v>1104744</v>
+        <v>1126470</v>
       </c>
       <c r="CQ97" s="34" t="s">
         <v>164</v>
@@ -29494,7 +29480,7 @@
         <v>146</v>
       </c>
       <c r="DK97" s="8" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="DL97" s="44"/>
       <c r="DM97" s="15"/>
@@ -29514,7 +29500,7 @@
       <c r="DY97" s="15"/>
       <c r="DZ97" s="12"/>
       <c r="EA97" s="8" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="EB97" s="15"/>
       <c r="EC97" s="8"/>
@@ -29526,19 +29512,19 @@
       <c r="EI97" s="8"/>
       <c r="EJ97" s="12"/>
     </row>
-    <row r="98" spans="1:140" ht="18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:140" ht="18" x14ac:dyDescent="0.35">
       <c r="A98" s="12" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="4" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="F98" s="5"/>
       <c r="G98" s="6" t="s">
@@ -29722,19 +29708,19 @@
       <c r="EI98" s="8"/>
       <c r="EJ98" s="12"/>
     </row>
-    <row r="99" spans="1:140" ht="45" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:140" ht="31" x14ac:dyDescent="0.35">
       <c r="A99" s="12" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>142</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="4" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="F99" s="5"/>
       <c r="G99" s="6" t="s">
@@ -29944,12 +29930,12 @@
       <c r="EI99" s="8"/>
       <c r="EJ99" s="12"/>
     </row>
-    <row r="100" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>185</v>
@@ -29958,7 +29944,7 @@
         <v>186</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>221</v>
@@ -29967,7 +29953,7 @@
         <v>146</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="I100" s="8" t="s">
         <v>401</v>
@@ -29985,7 +29971,7 @@
       <c r="P100" s="11"/>
       <c r="Q100" s="11"/>
       <c r="R100" s="8" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="S100" s="12">
         <v>0</v>
@@ -29997,7 +29983,7 @@
       <c r="V100" s="6"/>
       <c r="W100" s="15"/>
       <c r="X100" s="8" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="Y100" s="16"/>
       <c r="Z100" s="47">
@@ -30184,7 +30170,7 @@
         <v>146</v>
       </c>
       <c r="DK100" s="8" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="DL100" s="44"/>
       <c r="DM100" s="15"/>
@@ -30208,7 +30194,7 @@
       <c r="DY100" s="15"/>
       <c r="DZ100" s="12"/>
       <c r="EA100" s="8" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="EB100" s="15"/>
       <c r="EC100" s="8"/>
@@ -30222,12 +30208,12 @@
       <c r="EI100" s="8"/>
       <c r="EJ100" s="12"/>
     </row>
-    <row r="101" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>185</v>
@@ -30236,7 +30222,7 @@
         <v>143</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>145</v>
@@ -30245,7 +30231,7 @@
         <v>146</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="I101" s="8" t="s">
         <v>401</v>
@@ -30262,16 +30248,16 @@
         <v>151</v>
       </c>
       <c r="O101" s="45" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="P101" s="11" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="Q101" s="11" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="R101" s="8" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="S101" s="12">
         <v>0</v>
@@ -30284,7 +30270,7 @@
       </c>
       <c r="V101" s="6"/>
       <c r="W101" s="15" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="X101" s="8" t="s">
         <v>298</v>
@@ -30468,7 +30454,7 @@
         <v>146</v>
       </c>
       <c r="DK101" s="8" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="DL101" s="44"/>
       <c r="DM101" s="15"/>
@@ -30484,7 +30470,7 @@
       <c r="DS101" s="15"/>
       <c r="DT101" s="12"/>
       <c r="DU101" s="15" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="DV101" s="12"/>
       <c r="DW101" s="12"/>
@@ -30494,7 +30480,7 @@
       <c r="DY101" s="15"/>
       <c r="DZ101" s="12"/>
       <c r="EA101" s="8" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="EB101" s="15"/>
       <c r="EC101" s="8"/>
@@ -30510,19 +30496,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:140" ht="180" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:140" ht="170.5" x14ac:dyDescent="0.35">
       <c r="A102" s="12" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>142</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="4" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="F102" s="5"/>
       <c r="G102" s="6" t="s">
@@ -30530,7 +30516,7 @@
       </c>
       <c r="H102" s="7"/>
       <c r="I102" s="8" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="J102" s="8" t="s">
         <v>333</v>
@@ -30720,43 +30706,43 @@
       <c r="DY102" s="15"/>
       <c r="DZ102" s="12"/>
       <c r="EA102" s="2" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="EB102" s="15"/>
       <c r="EC102" s="8" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="ED102" s="19">
         <v>44312</v>
       </c>
       <c r="EE102" s="8" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="EF102" s="2" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="EG102" s="2"/>
       <c r="EH102" s="2" t="s">
         <v>442</v>
       </c>
       <c r="EI102" s="2" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="EJ102" s="12"/>
     </row>
-    <row r="103" spans="1:140" ht="18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:140" ht="18" x14ac:dyDescent="0.35">
       <c r="A103" s="12" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="4" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F103" s="5"/>
       <c r="G103" s="6" t="s">
@@ -30950,19 +30936,19 @@
       <c r="EI103" s="8"/>
       <c r="EJ103" s="12"/>
     </row>
-    <row r="104" spans="1:140" ht="18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:140" ht="18" x14ac:dyDescent="0.35">
       <c r="A104" s="12" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="4" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="F104" s="5"/>
       <c r="G104" s="6" t="s">
@@ -31144,12 +31130,12 @@
       <c r="EI104" s="8"/>
       <c r="EJ104" s="12"/>
     </row>
-    <row r="105" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>185</v>
@@ -31167,13 +31153,13 @@
         <v>146</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="I105" s="8" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="J105" s="8" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="K105" s="2"/>
       <c r="L105" s="8" t="s">
@@ -31184,16 +31170,16 @@
         <v>151</v>
       </c>
       <c r="O105" s="45" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="P105" s="11" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="Q105" s="11" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="R105" s="8" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="S105" s="12">
         <v>0</v>
@@ -31207,7 +31193,7 @@
       <c r="V105" s="6"/>
       <c r="W105" s="15"/>
       <c r="X105" s="8" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="Y105" s="16"/>
       <c r="Z105" s="47">
@@ -31388,7 +31374,7 @@
         <v>146</v>
       </c>
       <c r="DK105" s="8" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="DL105" s="44"/>
       <c r="DM105" s="15" t="s">
@@ -31410,7 +31396,7 @@
       <c r="DS105" s="15"/>
       <c r="DT105" s="12"/>
       <c r="DU105" s="15" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="DV105" s="12"/>
       <c r="DW105" s="12"/>
@@ -31420,38 +31406,38 @@
       <c r="DY105" s="15"/>
       <c r="DZ105" s="12"/>
       <c r="EA105" s="8" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="EB105" s="15"/>
       <c r="EC105" s="8" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="ED105" s="8"/>
       <c r="EE105" s="8" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="EF105" s="8" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="EG105" s="8" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="EH105" s="8" t="s">
         <v>442</v>
       </c>
       <c r="EI105" s="8" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="EJ105" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>185</v>
@@ -31460,7 +31446,7 @@
         <v>143</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="F106" s="5" t="s">
         <v>145</v>
@@ -31469,7 +31455,7 @@
         <v>146</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="I106" s="8" t="s">
         <v>401</v>
@@ -31486,7 +31472,7 @@
       <c r="O106" s="45"/>
       <c r="P106" s="11"/>
       <c r="Q106" s="11" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="R106" s="8"/>
       <c r="S106" s="12">
@@ -31549,7 +31535,7 @@
         <v>119040</v>
       </c>
       <c r="AP106" s="2" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="AQ106" s="12"/>
       <c r="AR106" s="12"/>
@@ -31645,7 +31631,7 @@
         <v>0</v>
       </c>
       <c r="CL106" s="22" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="CM106" s="30" t="s">
         <v>162</v>
@@ -31696,7 +31682,7 @@
         <v>146</v>
       </c>
       <c r="DK106" s="8" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="DL106" s="44"/>
       <c r="DM106" s="15" t="s">
@@ -31712,7 +31698,7 @@
       <c r="DS106" s="15"/>
       <c r="DT106" s="12"/>
       <c r="DU106" s="15" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="DV106" s="12"/>
       <c r="DW106" s="12"/>
@@ -31722,14 +31708,14 @@
       <c r="DY106" s="15"/>
       <c r="DZ106" s="12"/>
       <c r="EA106" s="8" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="EB106" s="15"/>
       <c r="EC106" s="8"/>
       <c r="ED106" s="8"/>
       <c r="EE106" s="8"/>
       <c r="EF106" s="8" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="EG106" s="8"/>
       <c r="EH106" s="8"/>
@@ -31738,19 +31724,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:140" ht="45" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:140" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A107" s="12" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>246</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="4" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="F107" s="5"/>
       <c r="G107" s="6" t="s">
@@ -31964,12 +31950,12 @@
       <c r="EI107" s="8"/>
       <c r="EJ107" s="12"/>
     </row>
-    <row r="108" spans="1:140" ht="315" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:140" ht="310" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>262</v>
@@ -31978,7 +31964,7 @@
         <v>166</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>193</v>
@@ -31987,10 +31973,10 @@
         <v>146</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="I108" s="8" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="J108" s="8" t="s">
         <v>378</v>
@@ -32007,7 +31993,7 @@
         <v>312</v>
       </c>
       <c r="P108" s="11" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="Q108" s="11"/>
       <c r="R108" s="8"/>
@@ -32019,7 +32005,7 @@
       <c r="V108" s="6"/>
       <c r="W108" s="15"/>
       <c r="X108" s="8" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="Y108" s="16"/>
       <c r="Z108" s="47">
@@ -32134,7 +32120,7 @@
         <v>145</v>
       </c>
       <c r="CC108" s="11" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="CD108" s="25">
         <v>44390</v>
@@ -32200,7 +32186,7 @@
       <c r="DI108" s="39"/>
       <c r="DJ108" s="30"/>
       <c r="DK108" s="8" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="DL108" s="44"/>
       <c r="DM108" s="15"/>
@@ -32220,7 +32206,7 @@
       <c r="DY108" s="15"/>
       <c r="DZ108" s="12"/>
       <c r="EA108" s="8" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="EB108" s="15"/>
       <c r="EC108" s="8"/>
@@ -32232,12 +32218,12 @@
       <c r="EI108" s="8"/>
       <c r="EJ108" s="12"/>
     </row>
-    <row r="109" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>185</v>
@@ -32246,7 +32232,7 @@
         <v>143</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>145</v>
@@ -32256,7 +32242,7 @@
       </c>
       <c r="H109" s="7"/>
       <c r="I109" s="8" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="J109" s="8" t="s">
         <v>292</v>
@@ -32270,16 +32256,16 @@
         <v>151</v>
       </c>
       <c r="O109" s="45" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="P109" s="11" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="Q109" s="8" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="R109" s="8" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S109" s="12">
         <v>0</v>
@@ -32292,7 +32278,7 @@
       </c>
       <c r="V109" s="6"/>
       <c r="W109" s="15" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="X109" s="8" t="s">
         <v>298</v>
@@ -32427,7 +32413,7 @@
         <v>14140925</v>
       </c>
       <c r="CL109" s="22" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="CM109" s="30" t="s">
         <v>300</v>
@@ -32478,7 +32464,7 @@
         <v>146</v>
       </c>
       <c r="DK109" s="8" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="DL109" s="44"/>
       <c r="DM109" s="15" t="s">
@@ -32506,7 +32492,7 @@
       <c r="DY109" s="15"/>
       <c r="DZ109" s="12"/>
       <c r="EA109" s="8" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="EB109" s="15"/>
       <c r="EC109" s="8"/>
@@ -32520,12 +32506,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:140" ht="18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:140" ht="18" x14ac:dyDescent="0.35">
       <c r="A110" s="12" t="s">
         <v>244</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>177</v>
@@ -32730,12 +32716,12 @@
       <c r="EI110" s="8"/>
       <c r="EJ110" s="12"/>
     </row>
-    <row r="111" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>246</v>
@@ -32744,7 +32730,7 @@
         <v>166</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>221</v>
@@ -32773,7 +32759,7 @@
       <c r="V111" s="6"/>
       <c r="W111" s="15"/>
       <c r="X111" s="8" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="Y111" s="16"/>
       <c r="Z111" s="55" t="s">
@@ -32928,7 +32914,7 @@
       <c r="DY111" s="15"/>
       <c r="DZ111" s="12"/>
       <c r="EA111" s="8" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="EB111" s="15"/>
       <c r="EC111" s="8"/>
@@ -32940,12 +32926,12 @@
       <c r="EI111" s="8"/>
       <c r="EJ111" s="12"/>
     </row>
-    <row r="112" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>185</v>
@@ -32954,7 +32940,7 @@
         <v>186</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>145</v>
@@ -32963,7 +32949,7 @@
         <v>146</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="I112" s="8" t="s">
         <v>401</v>
@@ -32976,22 +32962,22 @@
         <v>217</v>
       </c>
       <c r="M112" s="15" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="N112" s="9" t="s">
         <v>151</v>
       </c>
       <c r="O112" s="45" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="P112" s="11" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="Q112" s="11" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="R112" s="8" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="S112" s="12">
         <v>1</v>
@@ -33007,7 +32993,7 @@
       </c>
       <c r="W112" s="15"/>
       <c r="X112" s="8" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="Y112" s="16"/>
       <c r="Z112" s="47">
@@ -33139,7 +33125,7 @@
         <v>195</v>
       </c>
       <c r="CF112" s="12" t="s">
-        <v>936</v>
+        <v>451</v>
       </c>
       <c r="CG112" s="51">
         <v>0.66400000000000003</v>
@@ -33148,7 +33134,7 @@
         <v>44742</v>
       </c>
       <c r="CI112" s="9" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="CJ112" s="28" t="s">
         <v>407</v>
@@ -33177,7 +33163,7 @@
       <c r="CR112" s="35"/>
       <c r="CS112" s="36"/>
       <c r="CT112" s="15" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="CU112" s="12">
         <v>86083834</v>
@@ -33212,10 +33198,10 @@
       <c r="DI112" s="39"/>
       <c r="DJ112" s="30"/>
       <c r="DK112" s="8" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="DL112" s="44" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="DM112" s="15"/>
       <c r="DN112" s="9" t="s">
@@ -33234,7 +33220,7 @@
       </c>
       <c r="DT112" s="12"/>
       <c r="DU112" s="15" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="DV112" s="12"/>
       <c r="DW112" s="12"/>
@@ -33244,7 +33230,7 @@
       <c r="DY112" s="15"/>
       <c r="DZ112" s="12"/>
       <c r="EA112" s="8" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="EB112" s="15"/>
       <c r="EC112" s="8"/>
@@ -33258,19 +33244,19 @@
       <c r="EI112" s="8"/>
       <c r="EJ112" s="12"/>
     </row>
-    <row r="113" spans="1:140" ht="60" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:140" ht="62" x14ac:dyDescent="0.35">
       <c r="A113" s="12" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="4" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="F113" s="5"/>
       <c r="G113" s="6" t="s">
@@ -33278,10 +33264,10 @@
       </c>
       <c r="H113" s="7"/>
       <c r="I113" s="8" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="J113" s="8" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="K113" s="2"/>
       <c r="L113" s="8"/>
@@ -33492,19 +33478,19 @@
       <c r="EI113" s="8"/>
       <c r="EJ113" s="12"/>
     </row>
-    <row r="114" spans="1:140" ht="180" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:140" ht="170.5" x14ac:dyDescent="0.35">
       <c r="A114" s="12" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>230</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="4" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F114" s="5"/>
       <c r="G114" s="6" t="s">
@@ -33706,7 +33692,7 @@
       <c r="DY114" s="15"/>
       <c r="DZ114" s="12"/>
       <c r="EA114" s="8" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="EB114" s="15"/>
       <c r="EC114" s="8"/>
@@ -33718,12 +33704,12 @@
       <c r="EI114" s="8"/>
       <c r="EJ114" s="12"/>
     </row>
-    <row r="115" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>246</v>
@@ -33732,7 +33718,7 @@
         <v>186</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="F115" s="5" t="s">
         <v>221</v>
@@ -33761,7 +33747,7 @@
       <c r="V115" s="6"/>
       <c r="W115" s="15"/>
       <c r="X115" s="8" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="Y115" s="16"/>
       <c r="Z115" s="55" t="s">
@@ -33906,7 +33892,7 @@
       <c r="DI115" s="39"/>
       <c r="DJ115" s="30"/>
       <c r="DK115" s="8" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="DL115" s="44"/>
       <c r="DM115" s="15"/>
@@ -33926,7 +33912,7 @@
       <c r="DY115" s="15"/>
       <c r="DZ115" s="12"/>
       <c r="EA115" s="8" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="EB115" s="15"/>
       <c r="EC115" s="8"/>
@@ -33938,12 +33924,12 @@
       <c r="EI115" s="8"/>
       <c r="EJ115" s="12"/>
     </row>
-    <row r="116" spans="1:140" ht="390" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:140" ht="403" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>177</v>
@@ -33961,13 +33947,13 @@
         <v>146</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="I116" s="8" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="J116" s="8" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="K116" s="2"/>
       <c r="L116" s="8" t="s">
@@ -33985,7 +33971,7 @@
       <c r="V116" s="6"/>
       <c r="W116" s="15"/>
       <c r="X116" s="8" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="Y116" s="16"/>
       <c r="Z116" s="47">
@@ -34035,7 +34021,7 @@
         <v>50310</v>
       </c>
       <c r="AP116" s="2" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="AQ116" s="19">
         <v>44468</v>
@@ -34044,7 +34030,7 @@
         <v>50310</v>
       </c>
       <c r="AS116" s="2" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="AT116" s="20">
         <v>44468</v>
@@ -34053,7 +34039,7 @@
         <v>45600</v>
       </c>
       <c r="AV116" s="2" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="AW116" s="19">
         <v>44438</v>
@@ -34062,7 +34048,7 @@
         <v>151200</v>
       </c>
       <c r="AY116" s="2" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="AZ116" s="20">
         <v>44517</v>
@@ -34071,7 +34057,7 @@
         <v>151200</v>
       </c>
       <c r="BB116" s="2" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="BC116" s="12"/>
       <c r="BD116" s="12"/>
@@ -34192,7 +34178,7 @@
       <c r="DI116" s="39"/>
       <c r="DJ116" s="30"/>
       <c r="DK116" s="8" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="DL116" s="44"/>
       <c r="DM116" s="15"/>
@@ -34212,24 +34198,24 @@
       <c r="DY116" s="15"/>
       <c r="DZ116" s="12"/>
       <c r="EA116" s="8" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="EB116" s="15"/>
       <c r="EC116" s="8"/>
       <c r="ED116" s="8"/>
       <c r="EE116" s="8"/>
       <c r="EF116" s="8" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="EG116" s="8"/>
       <c r="EH116" s="8"/>
       <c r="EI116" s="8"/>
       <c r="EJ116" s="12"/>
     </row>
-    <row r="117" spans="1:140" ht="18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:140" ht="18" x14ac:dyDescent="0.35">
       <c r="A117" s="12"/>
       <c r="B117" s="3" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>177</v>
@@ -34404,12 +34390,12 @@
       <c r="EI117" s="8"/>
       <c r="EJ117" s="12"/>
     </row>
-    <row r="118" spans="1:140" ht="240" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:140" ht="248" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>246</v>
@@ -34418,7 +34404,7 @@
         <v>186</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="F118" s="5" t="s">
         <v>193</v>
@@ -34503,7 +34489,7 @@
         <v>100620</v>
       </c>
       <c r="AP118" s="12" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="AQ118" s="19">
         <v>44468</v>
@@ -34512,7 +34498,7 @@
         <v>48000</v>
       </c>
       <c r="AS118" s="2" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="AT118" s="12"/>
       <c r="AU118" s="12"/>
@@ -34586,7 +34572,7 @@
         <v>44233</v>
       </c>
       <c r="CE118" s="30" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="CF118" s="12"/>
       <c r="CG118" s="51">
@@ -34654,7 +34640,7 @@
       <c r="DI118" s="39"/>
       <c r="DJ118" s="30"/>
       <c r="DK118" s="8" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="DL118" s="44"/>
       <c r="DM118" s="15"/>
@@ -34674,7 +34660,7 @@
       <c r="DY118" s="15"/>
       <c r="DZ118" s="12"/>
       <c r="EA118" s="8" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="EB118" s="15"/>
       <c r="EC118" s="8"/>
@@ -34686,19 +34672,19 @@
       <c r="EI118" s="8"/>
       <c r="EJ118" s="12"/>
     </row>
-    <row r="119" spans="1:140" ht="45" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:140" ht="31" x14ac:dyDescent="0.35">
       <c r="A119" s="12" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="4" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="F119" s="5"/>
       <c r="G119" s="6" t="s">
@@ -34918,12 +34904,12 @@
       <c r="EI119" s="8"/>
       <c r="EJ119" s="12"/>
     </row>
-    <row r="120" spans="1:140" ht="120" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:140" ht="124" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>142</v>
@@ -34932,7 +34918,7 @@
         <v>186</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="F120" s="5" t="s">
         <v>193</v>
@@ -34941,7 +34927,7 @@
         <v>146</v>
       </c>
       <c r="H120" s="7" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="I120" s="8" t="s">
         <v>357</v>
@@ -34959,7 +34945,7 @@
       <c r="P120" s="11"/>
       <c r="Q120" s="11"/>
       <c r="R120" s="8" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="S120" s="12"/>
       <c r="T120" s="13"/>
@@ -35166,12 +35152,12 @@
       <c r="EI120" s="8"/>
       <c r="EJ120" s="12"/>
     </row>
-    <row r="121" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>185</v>
@@ -35180,7 +35166,7 @@
         <v>143</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="F121" s="5" t="s">
         <v>145</v>
@@ -35190,10 +35176,10 @@
       </c>
       <c r="H121" s="7"/>
       <c r="I121" s="8" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="J121" s="8" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="K121" s="2"/>
       <c r="L121" s="8" t="s">
@@ -35217,7 +35203,7 @@
       </c>
       <c r="W121" s="15"/>
       <c r="X121" s="8" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="Y121" s="16"/>
       <c r="Z121" s="47">
@@ -35343,7 +35329,7 @@
         <v>195</v>
       </c>
       <c r="CF121" s="12" t="s">
-        <v>936</v>
+        <v>451</v>
       </c>
       <c r="CG121" s="51">
         <v>0.54</v>
@@ -35364,7 +35350,7 @@
         <v>0</v>
       </c>
       <c r="CM121" s="30" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="CN121" s="31" t="s">
         <v>163</v>
@@ -35412,7 +35398,7 @@
         <v>146</v>
       </c>
       <c r="DK121" s="8" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="DL121" s="44"/>
       <c r="DM121" s="15"/>
@@ -35434,26 +35420,26 @@
       <c r="DY121" s="15"/>
       <c r="DZ121" s="12"/>
       <c r="EA121" s="8" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="EB121" s="15"/>
       <c r="EC121" s="8"/>
       <c r="ED121" s="8"/>
       <c r="EE121" s="8"/>
       <c r="EF121" s="8" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="EG121" s="8"/>
       <c r="EH121" s="8"/>
       <c r="EI121" s="8"/>
       <c r="EJ121" s="12"/>
     </row>
-    <row r="122" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>262</v>
@@ -35471,13 +35457,13 @@
         <v>146</v>
       </c>
       <c r="H122" s="7" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I122" s="8" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="J122" s="8" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="K122" s="2"/>
       <c r="L122" s="8" t="s">
@@ -35489,7 +35475,7 @@
       <c r="P122" s="11"/>
       <c r="Q122" s="11"/>
       <c r="R122" s="8" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="S122" s="12">
         <v>1</v>
@@ -35505,7 +35491,7 @@
       </c>
       <c r="W122" s="15"/>
       <c r="X122" s="8" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="Y122" s="16"/>
       <c r="Z122" s="55" t="s">
@@ -35666,7 +35652,7 @@
       </c>
       <c r="DL122" s="44"/>
       <c r="DM122" s="15" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="DN122" s="9"/>
       <c r="DO122" s="15" t="s">
@@ -35686,26 +35672,26 @@
       <c r="DY122" s="15"/>
       <c r="DZ122" s="12"/>
       <c r="EA122" s="8" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="EB122" s="15"/>
       <c r="EC122" s="8"/>
       <c r="ED122" s="8"/>
       <c r="EE122" s="8"/>
       <c r="EF122" s="8" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="EG122" s="8"/>
       <c r="EH122" s="8"/>
       <c r="EI122" s="8"/>
       <c r="EJ122" s="12"/>
     </row>
-    <row r="123" spans="1:140" ht="60" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:140" ht="62" x14ac:dyDescent="0.35">
       <c r="A123" s="12" t="s">
         <v>244</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>185</v>
@@ -35723,7 +35709,7 @@
         <v>244</v>
       </c>
       <c r="J123" s="8" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="K123" s="2"/>
       <c r="L123" s="8"/>
@@ -35932,12 +35918,12 @@
       <c r="EI123" s="8"/>
       <c r="EJ123" s="12"/>
     </row>
-    <row r="124" spans="1:140" ht="18" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:140" ht="18" x14ac:dyDescent="0.35">
       <c r="A124" s="12" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>246</v>
@@ -36150,12 +36136,12 @@
       <c r="EI124" s="8"/>
       <c r="EJ124" s="12"/>
     </row>
-    <row r="125" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>262</v>
@@ -36173,7 +36159,7 @@
         <v>146</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="I125" s="8" t="s">
         <v>215</v>
@@ -36197,7 +36183,7 @@
       <c r="V125" s="6"/>
       <c r="W125" s="15"/>
       <c r="X125" s="8" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="Y125" s="16"/>
       <c r="Z125" s="47">
@@ -36323,7 +36309,7 @@
       <c r="CJ125" s="28"/>
       <c r="CK125" s="29"/>
       <c r="CL125" s="22" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="CM125" s="30" t="s">
         <v>271</v>
@@ -36378,7 +36364,7 @@
         <v>146</v>
       </c>
       <c r="DK125" s="8" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="DL125" s="44"/>
       <c r="DM125" s="15"/>
@@ -36398,7 +36384,7 @@
       <c r="DY125" s="15"/>
       <c r="DZ125" s="12"/>
       <c r="EA125" s="8" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="EB125" s="15"/>
       <c r="EC125" s="8"/>
@@ -36410,12 +36396,12 @@
       <c r="EI125" s="8"/>
       <c r="EJ125" s="12"/>
     </row>
-    <row r="126" spans="1:140" ht="18" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:140" ht="18" x14ac:dyDescent="0.35">
       <c r="A126" s="12" t="s">
         <v>244</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>177</v>
@@ -36618,12 +36604,12 @@
       <c r="EI126" s="8"/>
       <c r="EJ126" s="12"/>
     </row>
-    <row r="127" spans="1:140" ht="18" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:140" ht="18" x14ac:dyDescent="0.35">
       <c r="A127" s="12" t="s">
         <v>244</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>246</v>
@@ -36828,12 +36814,12 @@
       <c r="EI127" s="8"/>
       <c r="EJ127" s="12"/>
     </row>
-    <row r="128" spans="1:140" ht="210" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:140" ht="201.5" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>230</v>
@@ -36852,10 +36838,10 @@
       </c>
       <c r="H128" s="7"/>
       <c r="I128" s="8" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="J128" s="8" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="K128" s="2"/>
       <c r="L128" s="8" t="s">
@@ -37058,12 +37044,12 @@
       <c r="DI128" s="39"/>
       <c r="DJ128" s="30"/>
       <c r="DK128" s="8" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="DL128" s="44"/>
       <c r="DM128" s="15"/>
       <c r="DN128" s="9" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="DO128" s="15"/>
       <c r="DP128" s="15"/>
@@ -37078,7 +37064,7 @@
       <c r="DY128" s="15"/>
       <c r="DZ128" s="12"/>
       <c r="EA128" s="8" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="EB128" s="15"/>
       <c r="EC128" s="8"/>
@@ -37090,12 +37076,12 @@
       <c r="EI128" s="8"/>
       <c r="EJ128" s="12"/>
     </row>
-    <row r="129" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>185</v>
@@ -37104,7 +37090,7 @@
         <v>143</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="F129" s="5" t="s">
         <v>145</v>
@@ -37113,13 +37099,13 @@
         <v>146</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="I129" s="8" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="J129" s="8" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="K129" s="2"/>
       <c r="L129" s="8" t="s">
@@ -37127,17 +37113,17 @@
       </c>
       <c r="M129" s="8"/>
       <c r="N129" s="9" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="O129" s="45" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="P129" s="11" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="Q129" s="11"/>
       <c r="R129" s="8" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="S129" s="12">
         <v>0</v>
@@ -37150,10 +37136,10 @@
       </c>
       <c r="V129" s="6"/>
       <c r="W129" s="15" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="X129" s="8" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="Y129" s="16"/>
       <c r="Z129" s="47">
@@ -37315,7 +37301,7 @@
       <c r="CR129" s="35"/>
       <c r="CS129" s="36"/>
       <c r="CT129" s="15" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="CU129" s="12">
         <v>226203290</v>
@@ -37352,7 +37338,7 @@
         <v>146</v>
       </c>
       <c r="DK129" s="8" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="DL129" s="44"/>
       <c r="DM129" s="15" t="s">
@@ -37362,7 +37348,7 @@
         <v>410</v>
       </c>
       <c r="DO129" s="15" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="DP129" s="15" t="s">
         <v>202</v>
@@ -37374,7 +37360,7 @@
       <c r="DS129" s="15"/>
       <c r="DT129" s="12"/>
       <c r="DU129" s="15" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="DV129" s="12"/>
       <c r="DW129" s="12"/>
@@ -37384,7 +37370,7 @@
       <c r="DY129" s="15"/>
       <c r="DZ129" s="12"/>
       <c r="EA129" s="8" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="EB129" s="15"/>
       <c r="EC129" s="8"/>
@@ -37400,12 +37386,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>185</v>
@@ -37414,7 +37400,7 @@
         <v>186</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="F130" s="5" t="s">
         <v>145</v>
@@ -37423,13 +37409,13 @@
         <v>146</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="I130" s="8" t="s">
         <v>324</v>
       </c>
       <c r="J130" s="8" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="K130" s="2"/>
       <c r="L130" s="8" t="s">
@@ -37440,16 +37426,16 @@
         <v>151</v>
       </c>
       <c r="O130" s="71" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="P130" s="72" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="Q130" s="72" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="R130" s="8" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="S130" s="12">
         <v>1</v>
@@ -37465,7 +37451,7 @@
       </c>
       <c r="W130" s="15"/>
       <c r="X130" s="8" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="Y130" s="16"/>
       <c r="Z130" s="47">
@@ -37583,7 +37569,7 @@
         <v>315</v>
       </c>
       <c r="CF130" s="12" t="s">
-        <v>936</v>
+        <v>451</v>
       </c>
       <c r="CG130" s="51">
         <v>0.7</v>
@@ -37652,11 +37638,11 @@
         <v>146</v>
       </c>
       <c r="DK130" s="8" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="DL130" s="44"/>
       <c r="DM130" s="15" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="DN130" s="9" t="s">
         <v>225</v>
@@ -37669,13 +37655,13 @@
       </c>
       <c r="DQ130" s="15"/>
       <c r="DR130" s="15" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="DS130" s="15" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="DT130" s="12" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="DU130" s="15"/>
       <c r="DV130" s="12"/>
@@ -37686,14 +37672,14 @@
       <c r="DY130" s="15"/>
       <c r="DZ130" s="12"/>
       <c r="EA130" s="8" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="EB130" s="15"/>
       <c r="EC130" s="8"/>
       <c r="ED130" s="8"/>
       <c r="EE130" s="8"/>
       <c r="EF130" s="8" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="EG130" s="8"/>
       <c r="EH130" s="8"/>
@@ -37702,12 +37688,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:140" ht="195" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:140" ht="201.5" x14ac:dyDescent="0.35">
       <c r="A131" s="12" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>246</v>
@@ -37898,7 +37884,7 @@
       <c r="DY131" s="15"/>
       <c r="DZ131" s="12"/>
       <c r="EA131" s="8" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="EB131" s="15"/>
       <c r="EC131" s="8"/>
@@ -37910,19 +37896,19 @@
       <c r="EI131" s="8"/>
       <c r="EJ131" s="12"/>
     </row>
-    <row r="132" spans="1:140" ht="45" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:140" ht="31" x14ac:dyDescent="0.35">
       <c r="A132" s="12" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="4" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="F132" s="5"/>
       <c r="G132" s="6" t="s">
@@ -38130,12 +38116,12 @@
       <c r="EI132" s="8"/>
       <c r="EJ132" s="12"/>
     </row>
-    <row r="133" spans="1:140" ht="18" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:140" ht="18" x14ac:dyDescent="0.35">
       <c r="A133" s="12" t="s">
         <v>244</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>177</v>
@@ -38338,19 +38324,19 @@
       <c r="EI133" s="8"/>
       <c r="EJ133" s="12"/>
     </row>
-    <row r="134" spans="1:140" ht="45" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:140" ht="31" x14ac:dyDescent="0.35">
       <c r="A134" s="12" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>142</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="4" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="F134" s="5"/>
       <c r="G134" s="6" t="s">
@@ -38548,12 +38534,12 @@
       <c r="EI134" s="8"/>
       <c r="EJ134" s="12"/>
     </row>
-    <row r="135" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>142</v>
@@ -38571,10 +38557,10 @@
         <v>146</v>
       </c>
       <c r="H135" s="7" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="I135" s="8" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="J135" s="8" t="s">
         <v>266</v>
@@ -38591,7 +38577,7 @@
       <c r="P135" s="11"/>
       <c r="Q135" s="11"/>
       <c r="R135" s="8" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="S135" s="12">
         <v>1</v>
@@ -38607,7 +38593,7 @@
       </c>
       <c r="W135" s="15"/>
       <c r="X135" s="8" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="Y135" s="16"/>
       <c r="Z135" s="47">
@@ -38657,7 +38643,7 @@
         <v>1236000</v>
       </c>
       <c r="AP135" s="12" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="AQ135" s="19">
         <v>44499</v>
@@ -38666,35 +38652,35 @@
         <v>3000060</v>
       </c>
       <c r="AS135" s="2" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="AT135" s="12"/>
       <c r="AU135" s="12">
         <v>976800</v>
       </c>
       <c r="AV135" s="2" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="AW135" s="12"/>
       <c r="AX135" s="12">
         <v>732600</v>
       </c>
       <c r="AY135" s="2" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="AZ135" s="12"/>
       <c r="BA135" s="12">
         <v>1710600</v>
       </c>
       <c r="BB135" s="2" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="BC135" s="12"/>
       <c r="BD135" s="12">
         <v>2686800</v>
       </c>
       <c r="BE135" s="2" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="BF135" s="12"/>
       <c r="BG135" s="12"/>
@@ -38768,7 +38754,7 @@
         <v>44926</v>
       </c>
       <c r="CI135" s="9" t="s">
-        <v>1059</v>
+        <v>222</v>
       </c>
       <c r="CJ135" s="28" t="s">
         <v>407</v>
@@ -38789,7 +38775,7 @@
         <v>14999987</v>
       </c>
       <c r="CP135" s="33">
-        <v>14360986</v>
+        <v>14484028</v>
       </c>
       <c r="CQ135" s="34" t="s">
         <v>164</v>
@@ -38886,7 +38872,7 @@
       </c>
       <c r="EJ135" s="12"/>
     </row>
-    <row r="136" spans="1:140" ht="18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:140" ht="18" x14ac:dyDescent="0.35">
       <c r="A136" s="12" t="s">
         <v>244</v>
       </c>
@@ -39096,7 +39082,7 @@
       <c r="EI136" s="8"/>
       <c r="EJ136" s="12"/>
     </row>
-    <row r="137" spans="1:140" ht="45" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:140" ht="31" x14ac:dyDescent="0.35">
       <c r="A137" s="12" t="s">
         <v>1066</v>
       </c>
@@ -39332,7 +39318,7 @@
       <c r="EI137" s="8"/>
       <c r="EJ137" s="12"/>
     </row>
-    <row r="138" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
         <v>1069</v>
       </c>
@@ -39527,7 +39513,7 @@
       <c r="CJ138" s="28"/>
       <c r="CK138" s="29"/>
       <c r="CL138" s="22" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="CM138" s="30" t="s">
         <v>162</v>
@@ -39616,7 +39602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:140" ht="135" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:140" ht="139.5" x14ac:dyDescent="0.35">
       <c r="A139" s="12" t="s">
         <v>1082</v>
       </c>
@@ -39636,10 +39622,10 @@
       </c>
       <c r="H139" s="7"/>
       <c r="I139" s="8" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="J139" s="8" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="K139" s="2"/>
       <c r="L139" s="8"/>
@@ -39852,7 +39838,7 @@
       <c r="EI139" s="8"/>
       <c r="EJ139" s="12"/>
     </row>
-    <row r="140" spans="1:140" ht="60" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:140" ht="62" x14ac:dyDescent="0.35">
       <c r="A140" s="12" t="s">
         <v>1085</v>
       </c>
@@ -39872,10 +39858,10 @@
       </c>
       <c r="H140" s="7"/>
       <c r="I140" s="8" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="J140" s="8" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="K140" s="2"/>
       <c r="L140" s="8"/>
@@ -40070,7 +40056,7 @@
       <c r="EI140" s="8"/>
       <c r="EJ140" s="12"/>
     </row>
-    <row r="141" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
         <v>1088</v>
       </c>
@@ -40094,7 +40080,7 @@
       </c>
       <c r="H141" s="7"/>
       <c r="I141" s="8" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="J141" s="8" t="s">
         <v>1090</v>
@@ -40191,7 +40177,7 @@
         <v>491400</v>
       </c>
       <c r="AV141" s="2" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="AW141" s="19">
         <v>44468</v>
@@ -40218,7 +40204,7 @@
         <v>1606600</v>
       </c>
       <c r="BE141" s="2" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="BF141" s="19">
         <v>44520</v>
@@ -40227,7 +40213,7 @@
         <v>1634250</v>
       </c>
       <c r="BH141" s="2" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="BI141" s="20">
         <v>44524</v>
@@ -40383,14 +40369,14 @@
       <c r="ED141" s="8"/>
       <c r="EE141" s="8"/>
       <c r="EF141" s="8" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="EG141" s="8"/>
       <c r="EH141" s="8"/>
       <c r="EI141" s="8"/>
       <c r="EJ141" s="12"/>
     </row>
-    <row r="142" spans="1:140" ht="18" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:140" ht="18" x14ac:dyDescent="0.35">
       <c r="A142" s="12" t="s">
         <v>244</v>
       </c>
@@ -40600,7 +40586,7 @@
       <c r="EI142" s="8"/>
       <c r="EJ142" s="12"/>
     </row>
-    <row r="143" spans="1:140" ht="18" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:140" ht="18" x14ac:dyDescent="0.35">
       <c r="A143" s="12" t="s">
         <v>244</v>
       </c>
@@ -40810,7 +40796,7 @@
       <c r="EI143" s="8"/>
       <c r="EJ143" s="12"/>
     </row>
-    <row r="144" spans="1:140" ht="45" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:140" ht="31" x14ac:dyDescent="0.35">
       <c r="A144" s="12" t="s">
         <v>1101</v>
       </c>
@@ -40822,7 +40808,7 @@
       </c>
       <c r="D144" s="2"/>
       <c r="E144" s="4" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F144" s="5"/>
       <c r="G144" s="6" t="s">
@@ -41028,7 +41014,7 @@
       <c r="EI144" s="8"/>
       <c r="EJ144" s="12"/>
     </row>
-    <row r="145" spans="1:140" ht="18" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:140" ht="18" x14ac:dyDescent="0.35">
       <c r="A145" s="12" t="s">
         <v>244</v>
       </c>
@@ -41238,7 +41224,7 @@
       <c r="EI145" s="8"/>
       <c r="EJ145" s="12"/>
     </row>
-    <row r="146" spans="1:140" ht="18" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:140" ht="18" x14ac:dyDescent="0.35">
       <c r="A146" s="12" t="s">
         <v>1104</v>
       </c>
@@ -41440,7 +41426,7 @@
       <c r="EI146" s="8"/>
       <c r="EJ146" s="12"/>
     </row>
-    <row r="147" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
         <v>1107</v>
       </c>
@@ -41454,7 +41440,7 @@
         <v>143</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="F147" s="5" t="s">
         <v>193</v>
@@ -41469,7 +41455,7 @@
         <v>215</v>
       </c>
       <c r="J147" s="8" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="K147" s="2" t="b">
         <v>1</v>
@@ -41549,7 +41535,7 @@
         <v>117600</v>
       </c>
       <c r="AP147" s="12" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="AQ147" s="19">
         <v>44438</v>
@@ -41731,14 +41717,14 @@
       <c r="ED147" s="8"/>
       <c r="EE147" s="8"/>
       <c r="EF147" s="8" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="EG147" s="8"/>
       <c r="EH147" s="8"/>
       <c r="EI147" s="8"/>
       <c r="EJ147" s="12"/>
     </row>
-    <row r="148" spans="1:140" ht="18" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:140" ht="18" x14ac:dyDescent="0.35">
       <c r="A148" s="12" t="s">
         <v>1115</v>
       </c>
@@ -41952,7 +41938,7 @@
       <c r="EI148" s="8"/>
       <c r="EJ148" s="12"/>
     </row>
-    <row r="149" spans="1:140" ht="180" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:140" ht="186" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
         <v>1117</v>
       </c>
@@ -41966,7 +41952,7 @@
         <v>166</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="F149" s="5" t="s">
         <v>221</v>
@@ -42151,7 +42137,7 @@
         <v>198</v>
       </c>
       <c r="CR149" s="35" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="CS149" s="54">
         <v>230000</v>
@@ -42180,7 +42166,7 @@
       <c r="DI149" s="39"/>
       <c r="DJ149" s="30"/>
       <c r="DK149" s="8" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="DL149" s="44"/>
       <c r="DM149" s="15"/>
@@ -42210,7 +42196,7 @@
       <c r="EI149" s="8"/>
       <c r="EJ149" s="12"/>
     </row>
-    <row r="150" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
         <v>1123</v>
       </c>
@@ -42224,7 +42210,7 @@
         <v>166</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="F150" s="5" t="s">
         <v>221</v>
@@ -42399,7 +42385,7 @@
       </c>
       <c r="CK150" s="29"/>
       <c r="CL150" s="22" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="CM150" s="30" t="s">
         <v>162</v>
@@ -42446,7 +42432,7 @@
       <c r="DI150" s="39"/>
       <c r="DJ150" s="30"/>
       <c r="DK150" s="8" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="DL150" s="44"/>
       <c r="DM150" s="15"/>
@@ -42476,7 +42462,7 @@
       <c r="EI150" s="8"/>
       <c r="EJ150" s="12"/>
     </row>
-    <row r="151" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
         <v>1130</v>
       </c>
@@ -42646,7 +42632,7 @@
         <v>145</v>
       </c>
       <c r="CC151" s="11" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="CD151" s="25">
         <v>44235</v>
@@ -42730,7 +42716,7 @@
       <c r="EI151" s="8"/>
       <c r="EJ151" s="12"/>
     </row>
-    <row r="152" spans="1:140" ht="18" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:140" ht="18" x14ac:dyDescent="0.35">
       <c r="A152" s="12" t="s">
         <v>244</v>
       </c>
@@ -42938,7 +42924,7 @@
       <c r="EI152" s="8"/>
       <c r="EJ152" s="12"/>
     </row>
-    <row r="153" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
         <v>1138</v>
       </c>
@@ -43124,7 +43110,7 @@
         <v>0</v>
       </c>
       <c r="CM153" s="30" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="CN153" s="31" t="s">
         <v>163</v>
@@ -43176,14 +43162,14 @@
       <c r="DM153" s="15"/>
       <c r="DN153" s="9"/>
       <c r="DO153" s="15" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="DP153" s="15" t="s">
         <v>201</v>
       </c>
       <c r="DQ153" s="15"/>
       <c r="DR153" s="15" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="DS153" s="15"/>
       <c r="DT153" s="12"/>
@@ -43208,7 +43194,7 @@
       <c r="EI153" s="8"/>
       <c r="EJ153" s="12"/>
     </row>
-    <row r="154" spans="1:140" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:140" ht="31" x14ac:dyDescent="0.35">
       <c r="A154" s="12" t="s">
         <v>244</v>
       </c>
@@ -43432,7 +43418,7 @@
       <c r="EI154" s="8"/>
       <c r="EJ154" s="12"/>
     </row>
-    <row r="155" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
         <v>1146</v>
       </c>
@@ -43446,7 +43432,7 @@
         <v>186</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="F155" s="5" t="s">
         <v>145</v>
@@ -43458,10 +43444,10 @@
         <v>1148</v>
       </c>
       <c r="I155" s="8" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="J155" s="8" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="K155" s="2"/>
       <c r="L155" s="8" t="s">
@@ -43545,7 +43531,7 @@
         <v>151200</v>
       </c>
       <c r="AP155" s="2" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AQ155" s="20">
         <v>44533</v>
@@ -43746,7 +43732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:140" ht="60" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:140" ht="62" x14ac:dyDescent="0.35">
       <c r="A156" s="12" t="s">
         <v>1160</v>
       </c>
@@ -43758,7 +43744,7 @@
       </c>
       <c r="D156" s="2"/>
       <c r="E156" s="4" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F156" s="5"/>
       <c r="G156" s="6" t="s">
@@ -43766,7 +43752,7 @@
       </c>
       <c r="H156" s="7"/>
       <c r="I156" s="8" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="J156" s="8" t="s">
         <v>180</v>
@@ -43960,7 +43946,7 @@
       <c r="EI156" s="8"/>
       <c r="EJ156" s="12"/>
     </row>
-    <row r="157" spans="1:140" ht="18" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:140" ht="18" x14ac:dyDescent="0.35">
       <c r="A157" s="12" t="s">
         <v>244</v>
       </c>
@@ -44178,7 +44164,7 @@
       <c r="EI157" s="8"/>
       <c r="EJ157" s="12"/>
     </row>
-    <row r="158" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
         <v>1163</v>
       </c>
@@ -44434,7 +44420,7 @@
       <c r="DS158" s="15"/>
       <c r="DT158" s="12"/>
       <c r="DU158" s="15" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="DV158" s="12"/>
       <c r="DW158" s="12"/>
@@ -44460,7 +44446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:140" ht="18" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:140" ht="18" x14ac:dyDescent="0.35">
       <c r="A159" s="12" t="s">
         <v>244</v>
       </c>
@@ -44672,7 +44658,7 @@
       <c r="EI159" s="8"/>
       <c r="EJ159" s="12"/>
     </row>
-    <row r="160" spans="1:140" ht="18" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:140" ht="18" x14ac:dyDescent="0.35">
       <c r="A160" s="12" t="s">
         <v>244</v>
       </c>
@@ -44882,7 +44868,7 @@
       <c r="EI160" s="8"/>
       <c r="EJ160" s="12"/>
     </row>
-    <row r="161" spans="1:140" ht="18" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:140" ht="18" x14ac:dyDescent="0.35">
       <c r="A161" s="12" t="s">
         <v>244</v>
       </c>
@@ -45092,7 +45078,7 @@
       <c r="EI161" s="8"/>
       <c r="EJ161" s="12"/>
     </row>
-    <row r="162" spans="1:140" ht="255" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:140" ht="248" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
         <v>1173</v>
       </c>
@@ -45115,10 +45101,10 @@
         <v>146</v>
       </c>
       <c r="H162" s="7" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="I162" s="8" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="J162" s="8" t="s">
         <v>378</v>
@@ -45327,14 +45313,14 @@
       <c r="ED162" s="8"/>
       <c r="EE162" s="8"/>
       <c r="EF162" s="8" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="EG162" s="8"/>
       <c r="EH162" s="8"/>
       <c r="EI162" s="8"/>
       <c r="EJ162" s="12"/>
     </row>
-    <row r="163" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
         <v>1178</v>
       </c>
@@ -45360,10 +45346,10 @@
         <v>1181</v>
       </c>
       <c r="I163" s="8" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="J163" s="8" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="K163" s="2"/>
       <c r="L163" s="8" t="s">
@@ -45540,7 +45526,7 @@
         <v>0</v>
       </c>
       <c r="CM163" s="30" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="CN163" s="31" t="s">
         <v>163</v>
@@ -45630,7 +45616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:140" ht="45" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:140" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A164" s="12" t="s">
         <v>244</v>
       </c>
@@ -45657,7 +45643,7 @@
         <v>244</v>
       </c>
       <c r="J164" s="8" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="K164" s="2"/>
       <c r="L164" s="8"/>
@@ -45858,7 +45844,7 @@
       <c r="EI164" s="8"/>
       <c r="EJ164" s="12"/>
     </row>
-    <row r="165" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
         <v>1191</v>
       </c>
@@ -45872,7 +45858,7 @@
         <v>143</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="F165" s="5" t="s">
         <v>145</v>
@@ -46033,9 +46019,9 @@
         <v>195</v>
       </c>
       <c r="CF165" s="12" t="s">
-        <v>936</v>
-      </c>
-      <c r="CG165" s="74">
+        <v>451</v>
+      </c>
+      <c r="CG165" s="51">
         <v>0.4</v>
       </c>
       <c r="CH165" s="52">
@@ -46132,7 +46118,7 @@
         <v>319</v>
       </c>
       <c r="DY165" s="15" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="DZ165" s="12"/>
       <c r="EA165" s="8" t="s">
@@ -46158,7 +46144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:140" ht="18" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:140" ht="18" x14ac:dyDescent="0.35">
       <c r="A166" s="12" t="s">
         <v>244</v>
       </c>
@@ -46368,7 +46354,7 @@
       <c r="EI166" s="8"/>
       <c r="EJ166" s="12"/>
     </row>
-    <row r="167" spans="1:140" ht="300" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:140" ht="294.5" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
         <v>1208</v>
       </c>
@@ -46555,7 +46541,7 @@
       <c r="CJ167" s="28"/>
       <c r="CK167" s="29"/>
       <c r="CL167" s="22" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="CM167" s="30" t="s">
         <v>195</v>
@@ -46644,7 +46630,7 @@
       <c r="EI167" s="8"/>
       <c r="EJ167" s="12"/>
     </row>
-    <row r="168" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
         <v>1215</v>
       </c>
@@ -46670,10 +46656,10 @@
         <v>1218</v>
       </c>
       <c r="I168" s="8" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="J168" s="8" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="K168" s="2"/>
       <c r="L168" s="8" t="s">
@@ -46822,7 +46808,7 @@
         <v>145</v>
       </c>
       <c r="CC168" s="11" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="CD168" s="25">
         <v>44399</v>
@@ -46938,7 +46924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:140" ht="75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:140" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A169" s="12" t="s">
         <v>1229</v>
       </c>
@@ -46950,7 +46936,7 @@
       </c>
       <c r="D169" s="2"/>
       <c r="E169" s="4" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="F169" s="5"/>
       <c r="G169" s="6" t="s">
@@ -47160,7 +47146,7 @@
       <c r="EI169" s="8"/>
       <c r="EJ169" s="12"/>
     </row>
-    <row r="170" spans="1:140" ht="18" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:140" ht="18" x14ac:dyDescent="0.35">
       <c r="A170" s="12" t="s">
         <v>244</v>
       </c>
@@ -47370,7 +47356,7 @@
       <c r="EI170" s="8"/>
       <c r="EJ170" s="12"/>
     </row>
-    <row r="171" spans="1:140" ht="18" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:140" ht="18" x14ac:dyDescent="0.35">
       <c r="A171" s="12" t="s">
         <v>244</v>
       </c>
@@ -47582,7 +47568,7 @@
       <c r="EI171" s="8"/>
       <c r="EJ171" s="12"/>
     </row>
-    <row r="172" spans="1:140" ht="105" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:140" ht="93" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
         <v>1233</v>
       </c>
@@ -47747,15 +47733,23 @@
       </c>
       <c r="CC172" s="11"/>
       <c r="CD172" s="25">
-        <v>44396</v>
+        <v>44563</v>
       </c>
       <c r="CE172" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="CF172" s="12"/>
-      <c r="CG172" s="27"/>
-      <c r="CH172" s="9"/>
-      <c r="CI172" s="9"/>
+      <c r="CF172" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="CG172" s="51">
+        <v>0.7</v>
+      </c>
+      <c r="CH172" s="52">
+        <v>44926</v>
+      </c>
+      <c r="CI172" s="9" t="s">
+        <v>196</v>
+      </c>
       <c r="CJ172" s="28"/>
       <c r="CK172" s="29"/>
       <c r="CL172" s="17">
@@ -47844,7 +47838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
         <v>1241</v>
       </c>
@@ -48021,7 +48015,7 @@
         <v>45202830</v>
       </c>
       <c r="CF173" s="12" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="CG173" s="51">
         <v>0.62839999999999996</v>
@@ -48120,7 +48114,7 @@
       <c r="EI173" s="8"/>
       <c r="EJ173" s="12"/>
     </row>
-    <row r="174" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
         <v>1250</v>
       </c>
@@ -48236,7 +48230,7 @@
       <c r="BG174" s="12"/>
       <c r="BH174" s="12"/>
       <c r="BI174" s="12"/>
-      <c r="BJ174" s="75">
+      <c r="BJ174" s="74">
         <v>1058450</v>
       </c>
       <c r="BK174" s="18">
@@ -48353,11 +48347,11 @@
       <c r="DJ174" s="30"/>
       <c r="DK174" s="8"/>
       <c r="DL174" s="44" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="DM174" s="15"/>
       <c r="DN174" s="9" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="DO174" s="15" t="s">
         <v>362</v>
@@ -48368,7 +48362,7 @@
       <c r="DS174" s="15"/>
       <c r="DT174" s="12"/>
       <c r="DU174" s="15" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="DV174" s="12"/>
       <c r="DW174" s="12"/>
@@ -48392,7 +48386,7 @@
       <c r="EI174" s="8"/>
       <c r="EJ174" s="12"/>
     </row>
-    <row r="175" spans="1:140" ht="18" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:140" ht="18" x14ac:dyDescent="0.35">
       <c r="A175" s="12" t="s">
         <v>244</v>
       </c>
@@ -48598,7 +48592,7 @@
       <c r="EI175" s="8"/>
       <c r="EJ175" s="12"/>
     </row>
-    <row r="176" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
         <v>1262</v>
       </c>
@@ -48774,7 +48768,7 @@
         <v>44926</v>
       </c>
       <c r="CI176" s="9" t="s">
-        <v>1267</v>
+        <v>222</v>
       </c>
       <c r="CJ176" s="28"/>
       <c r="CK176" s="29"/>
@@ -48844,7 +48838,7 @@
       <c r="DY176" s="15"/>
       <c r="DZ176" s="12"/>
       <c r="EA176" s="8" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="EB176" s="15"/>
       <c r="EC176" s="8"/>
@@ -48856,12 +48850,12 @@
       <c r="EI176" s="8"/>
       <c r="EJ176" s="12"/>
     </row>
-    <row r="177" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B177" s="3" t="s">
         <v>1269</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>1270</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>185</v>
@@ -48870,7 +48864,7 @@
         <v>143</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="F177" s="5" t="s">
         <v>145</v>
@@ -48879,13 +48873,13 @@
         <v>146</v>
       </c>
       <c r="H177" s="7" t="s">
+        <v>1270</v>
+      </c>
+      <c r="I177" s="8" t="s">
+        <v>917</v>
+      </c>
+      <c r="J177" s="8" t="s">
         <v>1271</v>
-      </c>
-      <c r="I177" s="8" t="s">
-        <v>915</v>
-      </c>
-      <c r="J177" s="8" t="s">
-        <v>1272</v>
       </c>
       <c r="K177" s="2" t="b">
         <v>1</v>
@@ -48899,7 +48893,7 @@
       <c r="P177" s="11"/>
       <c r="Q177" s="11"/>
       <c r="R177" s="8" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="S177" s="12">
         <v>0</v>
@@ -48913,7 +48907,7 @@
       <c r="V177" s="6"/>
       <c r="W177" s="15"/>
       <c r="X177" s="8" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="Y177" s="16"/>
       <c r="Z177" s="47">
@@ -48961,7 +48955,7 @@
         <v>50310</v>
       </c>
       <c r="AP177" s="12" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="AQ177" s="20">
         <v>44468</v>
@@ -48970,7 +48964,7 @@
         <v>30000</v>
       </c>
       <c r="AS177" s="12" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="AT177" s="20">
         <v>44392</v>
@@ -49053,7 +49047,7 @@
         <v>25200000</v>
       </c>
       <c r="CF177" s="12" t="s">
-        <v>936</v>
+        <v>451</v>
       </c>
       <c r="CG177" s="51">
         <v>0.13</v>
@@ -49118,7 +49112,7 @@
       <c r="DI177" s="39"/>
       <c r="DJ177" s="30"/>
       <c r="DK177" s="8" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="DL177" s="44"/>
       <c r="DM177" s="15"/>
@@ -49144,26 +49138,26 @@
       <c r="DY177" s="15"/>
       <c r="DZ177" s="12"/>
       <c r="EA177" s="8" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="EB177" s="15"/>
       <c r="EC177" s="8"/>
       <c r="ED177" s="8"/>
       <c r="EE177" s="8"/>
       <c r="EF177" s="8" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="EG177" s="8"/>
       <c r="EH177" s="8"/>
       <c r="EI177" s="8"/>
       <c r="EJ177" s="12"/>
     </row>
-    <row r="178" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B178" s="3" t="s">
         <v>1278</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>1279</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>246</v>
@@ -49172,7 +49166,7 @@
         <v>166</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="F178" s="5" t="s">
         <v>193</v>
@@ -49181,7 +49175,7 @@
         <v>146</v>
       </c>
       <c r="H178" s="7" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="I178" s="8" t="s">
         <v>232</v>
@@ -49198,7 +49192,7 @@
       <c r="O178" s="45"/>
       <c r="P178" s="11"/>
       <c r="Q178" s="7" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="R178" s="8"/>
       <c r="S178" s="12"/>
@@ -49383,12 +49377,12 @@
       <c r="DH178" s="30"/>
       <c r="DI178" s="39"/>
       <c r="DJ178" s="30" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="DK178" s="8"/>
       <c r="DL178" s="44"/>
       <c r="DM178" s="15" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="DN178" s="9"/>
       <c r="DO178" s="15"/>
@@ -49404,33 +49398,33 @@
       <c r="DY178" s="15"/>
       <c r="DZ178" s="12"/>
       <c r="EA178" s="8" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="EB178" s="15"/>
       <c r="EC178" s="8"/>
       <c r="ED178" s="8"/>
       <c r="EE178" s="8"/>
       <c r="EF178" s="8" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="EG178" s="8"/>
       <c r="EH178" s="8"/>
       <c r="EI178" s="8"/>
       <c r="EJ178" s="12"/>
     </row>
-    <row r="179" spans="1:140" ht="45" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:140" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A179" s="12" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B179" s="3" t="s">
         <v>1286</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>1287</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>230</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" s="4" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="F179" s="5"/>
       <c r="G179" s="6" t="s">
@@ -49650,12 +49644,12 @@
       <c r="EI179" s="8"/>
       <c r="EJ179" s="12"/>
     </row>
-    <row r="180" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B180" s="3" t="s">
         <v>1288</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>1289</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>142</v>
@@ -49664,7 +49658,7 @@
         <v>186</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="F180" s="5" t="s">
         <v>193</v>
@@ -49674,10 +49668,10 @@
       </c>
       <c r="H180" s="7"/>
       <c r="I180" s="8" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="J180" s="8" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="K180" s="2"/>
       <c r="L180" s="8" t="s">
@@ -49689,7 +49683,7 @@
       <c r="P180" s="11"/>
       <c r="Q180" s="11"/>
       <c r="R180" s="8" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="S180" s="12">
         <v>1</v>
@@ -49747,7 +49741,7 @@
         <v>1324020</v>
       </c>
       <c r="AP180" s="12" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="AQ180" s="12"/>
       <c r="AR180" s="12"/>
@@ -49896,7 +49890,7 @@
       <c r="DI180" s="39"/>
       <c r="DJ180" s="30"/>
       <c r="DK180" s="8" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="DL180" s="44"/>
       <c r="DM180" s="15"/>
@@ -49916,7 +49910,7 @@
       <c r="DY180" s="15"/>
       <c r="DZ180" s="12"/>
       <c r="EA180" s="8" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="EB180" s="15"/>
       <c r="EC180" s="8"/>
@@ -49928,12 +49922,12 @@
       <c r="EI180" s="8"/>
       <c r="EJ180" s="12"/>
     </row>
-    <row r="181" spans="1:140" ht="18" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:140" ht="18" x14ac:dyDescent="0.35">
       <c r="A181" s="12" t="s">
         <v>244</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>177</v>
@@ -50136,12 +50130,12 @@
       <c r="EI181" s="8"/>
       <c r="EJ181" s="12"/>
     </row>
-    <row r="182" spans="1:140" ht="195" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:140" ht="201.5" x14ac:dyDescent="0.35">
       <c r="A182" s="12" t="s">
         <v>244</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>177</v>
@@ -50334,7 +50328,7 @@
       <c r="DY182" s="15"/>
       <c r="DZ182" s="12"/>
       <c r="EA182" s="8" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="EB182" s="15"/>
       <c r="EC182" s="8"/>
@@ -50346,12 +50340,12 @@
       <c r="EI182" s="8"/>
       <c r="EJ182" s="12"/>
     </row>
-    <row r="183" spans="1:140" ht="270" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:140" ht="263.5" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B183" s="3" t="s">
         <v>1296</v>
-      </c>
-      <c r="B183" s="3" t="s">
-        <v>1297</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>246</v>
@@ -50360,7 +50354,7 @@
         <v>166</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="F183" s="5" t="s">
         <v>193</v>
@@ -50494,7 +50488,7 @@
         <v>145</v>
       </c>
       <c r="CC183" s="11" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="CD183" s="25">
         <v>44236</v>
@@ -50558,7 +50552,7 @@
       <c r="DI183" s="39"/>
       <c r="DJ183" s="30"/>
       <c r="DK183" s="8" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="DL183" s="44"/>
       <c r="DM183" s="15"/>
@@ -50576,7 +50570,7 @@
       <c r="DY183" s="15"/>
       <c r="DZ183" s="12"/>
       <c r="EA183" s="8" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="EB183" s="15"/>
       <c r="EC183" s="8"/>
@@ -50588,12 +50582,12 @@
       <c r="EI183" s="8"/>
       <c r="EJ183" s="12"/>
     </row>
-    <row r="184" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B184" s="3" t="s">
         <v>1300</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>1301</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>185</v>
@@ -50602,7 +50596,7 @@
         <v>143</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="F184" s="5" t="s">
         <v>145</v>
@@ -50611,13 +50605,13 @@
         <v>146</v>
       </c>
       <c r="H184" s="7" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="I184" s="8" t="s">
         <v>215</v>
       </c>
       <c r="J184" s="8" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="K184" s="2" t="b">
         <v>1</v>
@@ -50630,10 +50624,10 @@
       <c r="O184" s="45"/>
       <c r="P184" s="11"/>
       <c r="Q184" s="11" t="s">
+        <v>1303</v>
+      </c>
+      <c r="R184" s="8" t="s">
         <v>1304</v>
-      </c>
-      <c r="R184" s="8" t="s">
-        <v>1305</v>
       </c>
       <c r="S184" s="12">
         <v>1</v>
@@ -50648,10 +50642,10 @@
         <v>145</v>
       </c>
       <c r="W184" s="15" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="X184" s="8" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="Y184" s="16"/>
       <c r="Z184" s="47">
@@ -50848,10 +50842,10 @@
         <v>146</v>
       </c>
       <c r="DK184" s="8" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="DL184" s="44" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="DM184" s="15" t="s">
         <v>361</v>
@@ -50874,11 +50868,11 @@
       <c r="DY184" s="15"/>
       <c r="DZ184" s="12"/>
       <c r="EA184" s="8" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="EB184" s="15"/>
       <c r="EC184" s="8" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="ED184" s="8"/>
       <c r="EE184" s="8"/>
@@ -50886,7 +50880,7 @@
         <v>1062</v>
       </c>
       <c r="EG184" s="8" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="EH184" s="8"/>
       <c r="EI184" s="8"/>
@@ -50894,12 +50888,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:140" ht="240" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:140" ht="248" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B185" s="3" t="s">
         <v>1311</v>
-      </c>
-      <c r="B185" s="3" t="s">
-        <v>1312</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>177</v>
@@ -50917,13 +50911,13 @@
         <v>146</v>
       </c>
       <c r="H185" s="7" t="s">
+        <v>1312</v>
+      </c>
+      <c r="I185" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="J185" s="8" t="s">
         <v>1313</v>
-      </c>
-      <c r="I185" s="8" t="s">
-        <v>757</v>
-      </c>
-      <c r="J185" s="8" t="s">
-        <v>1314</v>
       </c>
       <c r="K185" s="2" t="b">
         <v>1</v>
@@ -50937,7 +50931,7 @@
       <c r="P185" s="11"/>
       <c r="Q185" s="11"/>
       <c r="R185" s="8" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="S185" s="12">
         <v>0</v>
@@ -50993,14 +50987,14 @@
         <v>117000</v>
       </c>
       <c r="AP185" s="12" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AQ185" s="12"/>
       <c r="AR185" s="12">
         <v>122850</v>
       </c>
       <c r="AS185" s="12" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="AT185" s="20">
         <v>44468</v>
@@ -51009,14 +51003,14 @@
         <v>117000</v>
       </c>
       <c r="AV185" s="12" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="AW185" s="12"/>
       <c r="AX185" s="12">
         <v>117000</v>
       </c>
       <c r="AY185" s="12" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="AZ185" s="20">
         <v>44438</v>
@@ -51025,21 +51019,21 @@
         <v>46800</v>
       </c>
       <c r="BB185" s="12" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="BC185" s="12"/>
       <c r="BD185" s="12">
         <v>117000</v>
       </c>
       <c r="BE185" s="12" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="BF185" s="12"/>
       <c r="BG185" s="12">
         <v>117000</v>
       </c>
       <c r="BH185" s="12" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="BI185" s="12"/>
       <c r="BJ185" s="18">
@@ -51156,7 +51150,7 @@
       <c r="DI185" s="39"/>
       <c r="DJ185" s="30"/>
       <c r="DK185" s="8" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="DL185" s="44"/>
       <c r="DM185" s="15"/>
@@ -51180,7 +51174,7 @@
       <c r="DY185" s="15"/>
       <c r="DZ185" s="12"/>
       <c r="EA185" s="8" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="EB185" s="15"/>
       <c r="EC185" s="8"/>
@@ -51192,12 +51186,12 @@
       <c r="EI185" s="8"/>
       <c r="EJ185" s="12"/>
     </row>
-    <row r="186" spans="1:140" ht="18" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:140" ht="18" x14ac:dyDescent="0.35">
       <c r="A186" s="12" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B186" s="3" t="s">
         <v>1324</v>
-      </c>
-      <c r="B186" s="3" t="s">
-        <v>1325</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>142</v>
@@ -51396,19 +51390,19 @@
       <c r="EI186" s="8"/>
       <c r="EJ186" s="12"/>
     </row>
-    <row r="187" spans="1:140" ht="18" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:140" ht="18" x14ac:dyDescent="0.35">
       <c r="A187" s="12" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B187" s="3" t="s">
         <v>1326</v>
-      </c>
-      <c r="B187" s="3" t="s">
-        <v>1327</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" s="4" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F187" s="5"/>
       <c r="G187" s="6" t="s">
@@ -51592,19 +51586,19 @@
       <c r="EI187" s="8"/>
       <c r="EJ187" s="12"/>
     </row>
-    <row r="188" spans="1:140" ht="30" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:140" ht="31" x14ac:dyDescent="0.35">
       <c r="A188" s="12" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B188" s="3" t="s">
         <v>1328</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>1329</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>230</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" s="4" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="F188" s="5"/>
       <c r="G188" s="6" t="s">
@@ -51794,12 +51788,12 @@
       <c r="EI188" s="8"/>
       <c r="EJ188" s="12"/>
     </row>
-    <row r="189" spans="1:140" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:140" ht="25" x14ac:dyDescent="0.35">
       <c r="A189" s="12" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B189" s="3" t="s">
         <v>1331</v>
-      </c>
-      <c r="B189" s="3" t="s">
-        <v>1332</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>230</v>
@@ -51992,7 +51986,7 @@
         <v>158</v>
       </c>
       <c r="DO189" s="15" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="DP189" s="15" t="s">
         <v>201</v>
@@ -52001,7 +51995,7 @@
       <c r="DR189" s="15"/>
       <c r="DS189" s="15"/>
       <c r="DT189" s="12" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="DU189" s="15"/>
       <c r="DV189" s="12"/>
@@ -52022,12 +52016,12 @@
       <c r="EI189" s="8"/>
       <c r="EJ189" s="12"/>
     </row>
-    <row r="190" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B190" s="3" t="s">
         <v>1333</v>
-      </c>
-      <c r="B190" s="3" t="s">
-        <v>1334</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>177</v>
@@ -52036,7 +52030,7 @@
         <v>186</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="F190" s="5" t="s">
         <v>221</v>
@@ -52045,7 +52039,7 @@
         <v>146</v>
       </c>
       <c r="H190" s="7" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="I190" s="8" t="s">
         <v>1245</v>
@@ -52065,7 +52059,7 @@
       <c r="P190" s="11"/>
       <c r="Q190" s="11"/>
       <c r="R190" s="8" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="S190" s="12"/>
       <c r="T190" s="13" t="s">
@@ -52201,7 +52195,7 @@
         <v>195</v>
       </c>
       <c r="CL190" s="22" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="CM190" s="30" t="s">
         <v>271</v>
@@ -52248,7 +52242,7 @@
         <v>146</v>
       </c>
       <c r="DK190" s="8" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="DL190" s="44"/>
       <c r="DM190" s="15"/>
@@ -52268,7 +52262,7 @@
       <c r="DY190" s="15"/>
       <c r="DZ190" s="12"/>
       <c r="EA190" s="8" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="EB190" s="15"/>
       <c r="EC190" s="8"/>
@@ -52282,12 +52276,12 @@
       <c r="EI190" s="8"/>
       <c r="EJ190" s="12"/>
     </row>
-    <row r="191" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B191" s="3" t="s">
         <v>1339</v>
-      </c>
-      <c r="B191" s="3" t="s">
-        <v>1340</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>246</v>
@@ -52305,7 +52299,7 @@
         <v>146</v>
       </c>
       <c r="H191" s="7" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="I191" s="8" t="s">
         <v>242</v>
@@ -52323,7 +52317,7 @@
       <c r="P191" s="11"/>
       <c r="Q191" s="11"/>
       <c r="R191" s="8" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="S191" s="12"/>
       <c r="T191" s="13"/>
@@ -52331,7 +52325,7 @@
       <c r="V191" s="6"/>
       <c r="W191" s="15"/>
       <c r="X191" s="8" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="Y191" s="16"/>
       <c r="Z191" s="47">
@@ -52432,7 +52426,7 @@
         <v>145</v>
       </c>
       <c r="CC191" s="11" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="CD191" s="25">
         <v>44236</v>
@@ -52500,7 +52494,7 @@
       <c r="DI191" s="39"/>
       <c r="DJ191" s="30"/>
       <c r="DK191" s="8" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="DL191" s="44"/>
       <c r="DM191" s="15"/>
@@ -52520,26 +52514,26 @@
       <c r="DY191" s="15"/>
       <c r="DZ191" s="12"/>
       <c r="EA191" s="8" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="EB191" s="15"/>
       <c r="EC191" s="8"/>
       <c r="ED191" s="8"/>
       <c r="EE191" s="8"/>
       <c r="EF191" s="8" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="EG191" s="8"/>
       <c r="EH191" s="8"/>
       <c r="EI191" s="8"/>
       <c r="EJ191" s="12"/>
     </row>
-    <row r="192" spans="1:140" ht="210" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:140" ht="217" x14ac:dyDescent="0.35">
       <c r="A192" s="12" t="s">
         <v>244</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>230</v>
@@ -52557,7 +52551,7 @@
         <v>244</v>
       </c>
       <c r="J192" s="8" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="K192" s="2"/>
       <c r="L192" s="8"/>
@@ -52734,7 +52728,7 @@
       <c r="DY192" s="15"/>
       <c r="DZ192" s="12"/>
       <c r="EA192" s="8" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="EB192" s="15"/>
       <c r="EC192" s="8"/>
@@ -52746,12 +52740,12 @@
       <c r="EI192" s="8"/>
       <c r="EJ192" s="12"/>
     </row>
-    <row r="193" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B193" s="3" t="s">
         <v>1346</v>
-      </c>
-      <c r="B193" s="3" t="s">
-        <v>1347</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>246</v>
@@ -52760,7 +52754,7 @@
         <v>186</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="F193" s="5" t="s">
         <v>193</v>
@@ -52769,13 +52763,13 @@
         <v>146</v>
       </c>
       <c r="H193" s="7" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I193" s="8" t="s">
+        <v>825</v>
+      </c>
+      <c r="J193" s="8" t="s">
         <v>1348</v>
-      </c>
-      <c r="I193" s="8" t="s">
-        <v>823</v>
-      </c>
-      <c r="J193" s="8" t="s">
-        <v>1349</v>
       </c>
       <c r="K193" s="2" t="b">
         <v>1</v>
@@ -52797,7 +52791,7 @@
       <c r="V193" s="6"/>
       <c r="W193" s="15"/>
       <c r="X193" s="8" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="Y193" s="16"/>
       <c r="Z193" s="47">
@@ -52850,7 +52844,7 @@
         <v>1500100</v>
       </c>
       <c r="AS193" s="2" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="AT193" s="19">
         <v>44468</v>
@@ -52859,7 +52853,7 @@
         <v>494400</v>
       </c>
       <c r="AV193" s="12" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="AW193" s="12"/>
       <c r="AX193" s="12"/>
@@ -52986,7 +52980,7 @@
         <v>146</v>
       </c>
       <c r="DK193" s="8" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="DL193" s="44"/>
       <c r="DM193" s="15"/>
@@ -53010,26 +53004,26 @@
       <c r="DY193" s="15"/>
       <c r="DZ193" s="12"/>
       <c r="EA193" s="8" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="EB193" s="15"/>
       <c r="EC193" s="8"/>
       <c r="ED193" s="8"/>
       <c r="EE193" s="8"/>
       <c r="EF193" s="8" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="EG193" s="8"/>
       <c r="EH193" s="8"/>
       <c r="EI193" s="8"/>
       <c r="EJ193" s="12"/>
     </row>
-    <row r="194" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B194" s="3" t="s">
         <v>1354</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>1355</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>142</v>
@@ -53038,7 +53032,7 @@
         <v>186</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="F194" s="5" t="s">
         <v>221</v>
@@ -53048,10 +53042,10 @@
       </c>
       <c r="H194" s="7"/>
       <c r="I194" s="8" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="J194" s="8" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="K194" s="2"/>
       <c r="L194" s="8" t="s">
@@ -53069,7 +53063,7 @@
       <c r="V194" s="6"/>
       <c r="W194" s="15"/>
       <c r="X194" s="8" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="Y194" s="16"/>
       <c r="Z194" s="47">
@@ -53117,7 +53111,7 @@
         <v>102960</v>
       </c>
       <c r="AP194" s="12" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="AQ194" s="19">
         <v>44468</v>
@@ -53126,7 +53120,7 @@
         <v>72000</v>
       </c>
       <c r="AS194" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="AT194" s="19">
         <v>44438</v>
@@ -53223,7 +53217,7 @@
         <v>198</v>
       </c>
       <c r="CR194" s="35" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="CS194" s="54">
         <v>230000</v>
@@ -53251,7 +53245,7 @@
       <c r="DH194" s="30"/>
       <c r="DI194" s="39"/>
       <c r="DJ194" s="30" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="DK194" s="8"/>
       <c r="DL194" s="44"/>
@@ -53270,7 +53264,7 @@
       <c r="DY194" s="15"/>
       <c r="DZ194" s="12"/>
       <c r="EA194" s="8" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="EB194" s="15"/>
       <c r="EC194" s="8"/>
@@ -53282,12 +53276,12 @@
       <c r="EI194" s="8"/>
       <c r="EJ194" s="12"/>
     </row>
-    <row r="195" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B195" s="3" t="s">
         <v>1358</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>1359</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>142</v>
@@ -53296,7 +53290,7 @@
         <v>143</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="F195" s="5" t="s">
         <v>145</v>
@@ -53305,13 +53299,13 @@
         <v>146</v>
       </c>
       <c r="H195" s="7" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="I195" s="8" t="s">
         <v>1235</v>
       </c>
       <c r="J195" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K195" s="2"/>
       <c r="L195" s="8" t="s">
@@ -53322,14 +53316,14 @@
         <v>151</v>
       </c>
       <c r="O195" s="45" t="s">
+        <v>1362</v>
+      </c>
+      <c r="P195" s="11" t="s">
         <v>1363</v>
-      </c>
-      <c r="P195" s="11" t="s">
-        <v>1364</v>
       </c>
       <c r="Q195" s="11"/>
       <c r="R195" s="8" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="S195" s="12">
         <v>1</v>
@@ -53345,7 +53339,7 @@
       </c>
       <c r="W195" s="15"/>
       <c r="X195" s="8" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="Y195" s="16"/>
       <c r="Z195" s="47">
@@ -53452,7 +53446,7 @@
         <v>145</v>
       </c>
       <c r="CC195" s="11" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="CD195" s="25">
         <v>44236</v>
@@ -53514,7 +53508,7 @@
         <v>146</v>
       </c>
       <c r="DK195" s="8" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="DL195" s="44"/>
       <c r="DM195" s="15" t="s">
@@ -53540,36 +53534,36 @@
       </c>
       <c r="DZ195" s="12"/>
       <c r="EA195" s="8" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="EB195" s="15"/>
       <c r="EC195" s="8" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="ED195" s="8"/>
       <c r="EE195" s="8"/>
       <c r="EF195" s="8" t="s">
+        <v>1369</v>
+      </c>
+      <c r="EG195" s="8" t="s">
         <v>1370</v>
-      </c>
-      <c r="EG195" s="8" t="s">
-        <v>1371</v>
       </c>
       <c r="EH195" s="8" t="s">
         <v>442</v>
       </c>
       <c r="EI195" s="8" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="EJ195" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A196" s="2" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B196" s="3" t="s">
         <v>1373</v>
-      </c>
-      <c r="B196" s="3" t="s">
-        <v>1374</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>185</v>
@@ -53578,7 +53572,7 @@
         <v>186</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="F196" s="5" t="s">
         <v>145</v>
@@ -53591,7 +53585,7 @@
         <v>215</v>
       </c>
       <c r="J196" s="8" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="K196" s="2"/>
       <c r="L196" s="8" t="s">
@@ -53603,7 +53597,7 @@
       <c r="P196" s="11"/>
       <c r="Q196" s="11"/>
       <c r="R196" s="8" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="S196" s="12">
         <v>0</v>
@@ -53663,7 +53657,7 @@
         <v>151200</v>
       </c>
       <c r="AP196" s="12" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="AQ196" s="19">
         <v>44531</v>
@@ -53738,20 +53732,22 @@
         <v>160</v>
       </c>
       <c r="CC196" s="11" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="CD196" s="25">
-        <v>44237</v>
-      </c>
-      <c r="CE196" s="26">
-        <v>120283270</v>
-      </c>
-      <c r="CF196" s="12"/>
+        <v>44587</v>
+      </c>
+      <c r="CE196" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="CF196" s="12" t="s">
+        <v>604</v>
+      </c>
       <c r="CG196" s="51">
-        <v>0.3</v>
+        <v>0.46</v>
       </c>
       <c r="CH196" s="52">
-        <v>44561</v>
+        <v>45291</v>
       </c>
       <c r="CI196" s="9" t="s">
         <v>222</v>
@@ -53814,7 +53810,7 @@
       <c r="DI196" s="39"/>
       <c r="DJ196" s="30"/>
       <c r="DK196" s="8" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="DL196" s="44"/>
       <c r="DM196" s="15"/>
@@ -53830,7 +53826,7 @@
       <c r="DS196" s="15"/>
       <c r="DT196" s="12"/>
       <c r="DU196" s="15" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="DV196" s="12"/>
       <c r="DW196" s="12"/>
@@ -53840,7 +53836,7 @@
       <c r="DY196" s="15"/>
       <c r="DZ196" s="12"/>
       <c r="EA196" s="8" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="EB196" s="15"/>
       <c r="EC196" s="8"/>
@@ -53854,12 +53850,12 @@
       <c r="EI196" s="8"/>
       <c r="EJ196" s="12"/>
     </row>
-    <row r="197" spans="1:140" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:140" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B197" s="3" t="s">
         <v>1379</v>
-      </c>
-      <c r="B197" s="3" t="s">
-        <v>1380</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>185</v>
@@ -53868,7 +53864,7 @@
         <v>186</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="F197" s="5" t="s">
         <v>221</v>
@@ -53877,13 +53873,13 @@
         <v>146</v>
       </c>
       <c r="H197" s="7" t="s">
+        <v>1381</v>
+      </c>
+      <c r="I197" s="8" t="s">
         <v>1382</v>
       </c>
-      <c r="I197" s="8" t="s">
-        <v>1383</v>
-      </c>
       <c r="J197" s="8" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="K197" s="2"/>
       <c r="L197" s="8" t="s">
@@ -53895,7 +53891,7 @@
       <c r="P197" s="11"/>
       <c r="Q197" s="11"/>
       <c r="R197" s="8" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="S197" s="12">
         <v>0</v>
@@ -53906,10 +53902,10 @@
       </c>
       <c r="V197" s="6"/>
       <c r="W197" s="15" t="s">
+        <v>1384</v>
+      </c>
+      <c r="X197" s="8" t="s">
         <v>1385</v>
-      </c>
-      <c r="X197" s="8" t="s">
-        <v>1386</v>
       </c>
       <c r="Y197" s="16"/>
       <c r="Z197" s="55" t="s">
@@ -54012,7 +54008,7 @@
         <v>145</v>
       </c>
       <c r="CC197" s="11" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="CD197" s="25">
         <v>44438</v>
@@ -54021,7 +54017,7 @@
         <v>195</v>
       </c>
       <c r="CF197" s="12" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="CG197" s="51">
         <v>0.47</v>
@@ -54066,7 +54062,7 @@
         <v>383</v>
       </c>
       <c r="CW197" s="39" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="CX197" s="32">
         <v>610791</v>
@@ -54090,7 +54086,7 @@
       <c r="DI197" s="39"/>
       <c r="DJ197" s="30"/>
       <c r="DK197" s="8" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="DL197" s="44"/>
       <c r="DM197" s="15"/>
@@ -54112,7 +54108,7 @@
       <c r="DY197" s="15"/>
       <c r="DZ197" s="12"/>
       <c r="EA197" s="8" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EB197" s="15"/>
       <c r="EC197" s="8"/>
@@ -54135,7 +54131,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="60" customWidth="1"/>
@@ -54143,592 +54139,592 @@
     <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B1" t="s">
         <v>1390</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1391</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1392</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B4" t="s">
         <v>1393</v>
       </c>
+      <c r="C4" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1394</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1390</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1394</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1392</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>1395</v>
       </c>
+      <c r="B7" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1397</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1396</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1397</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1392</v>
-      </c>
-      <c r="D7" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B10" t="s">
         <v>1398</v>
       </c>
+      <c r="C10" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1399</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>1396</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1399</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1392</v>
-      </c>
-      <c r="D10" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>1400</v>
       </c>
+      <c r="B13" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1402</v>
+      </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>1401</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1402</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1392</v>
-      </c>
-      <c r="D13" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>1403</v>
       </c>
+      <c r="B16" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1405</v>
+      </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>1404</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1392</v>
-      </c>
-      <c r="D16" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>1406</v>
       </c>
+      <c r="B19" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1409</v>
+      </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>1407</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C22" t="s">
         <v>1408</v>
       </c>
-      <c r="C19" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1410</v>
+      <c r="D22" t="s">
+        <v>1411</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>1407</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1411</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D22" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>1412</v>
       </c>
+      <c r="B25" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1415</v>
+      </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>1413</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C34" t="s">
         <v>1414</v>
       </c>
-      <c r="C25" t="s">
-        <v>1415</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1416</v>
+      <c r="D34" t="s">
+        <v>1423</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>1413</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1418</v>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1426</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>1419</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1420</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D31" t="s">
-        <v>1421</v>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1428</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>1422</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C34" t="s">
-        <v>1415</v>
-      </c>
-      <c r="D34" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>1424</v>
       </c>
+      <c r="B43" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1430</v>
+      </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>1425</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1426</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1427</v>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1433</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>1425</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1428</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1429</v>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1435</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>1425</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1430</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D43" t="s">
-        <v>1431</v>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1438</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>1432</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1433</v>
-      </c>
-      <c r="C46" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D46" t="s">
-        <v>1434</v>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1441</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>1432</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C49" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D49" t="s">
-        <v>1436</v>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1444</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>1437</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1438</v>
-      </c>
-      <c r="C52" t="s">
-        <v>1392</v>
-      </c>
-      <c r="D52" t="s">
-        <v>1439</v>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1447</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>1440</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1441</v>
-      </c>
-      <c r="C55" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D55" t="s">
-        <v>1442</v>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1449</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>1443</v>
-      </c>
-      <c r="B58" t="s">
-        <v>1444</v>
-      </c>
-      <c r="C58" t="s">
-        <v>1392</v>
-      </c>
-      <c r="D58" t="s">
-        <v>1445</v>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1452</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>1446</v>
-      </c>
-      <c r="B61" t="s">
-        <v>1447</v>
-      </c>
-      <c r="C61" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D61" t="s">
-        <v>1448</v>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1455</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>1446</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1449</v>
-      </c>
-      <c r="C64" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D64" t="s">
-        <v>1450</v>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1457</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>1451</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1452</v>
-      </c>
-      <c r="C67" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D67" t="s">
-        <v>1453</v>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1460</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>1454</v>
-      </c>
-      <c r="B70" t="s">
-        <v>1455</v>
-      </c>
-      <c r="C70" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D70" t="s">
-        <v>1456</v>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1463</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>1454</v>
-      </c>
-      <c r="B73" t="s">
-        <v>1457</v>
-      </c>
-      <c r="C73" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D73" t="s">
-        <v>1458</v>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1465</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>1459</v>
-      </c>
-      <c r="B76" t="s">
-        <v>1460</v>
-      </c>
-      <c r="C76" t="s">
-        <v>1392</v>
-      </c>
-      <c r="D76" t="s">
-        <v>1461</v>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1468</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>1462</v>
-      </c>
-      <c r="B79" t="s">
-        <v>1463</v>
-      </c>
-      <c r="C79" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D79" t="s">
-        <v>1464</v>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1470</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>1462</v>
-      </c>
-      <c r="B82" t="s">
-        <v>1465</v>
-      </c>
-      <c r="C82" t="s">
-        <v>1392</v>
-      </c>
-      <c r="D82" t="s">
-        <v>1466</v>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1473</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>1467</v>
-      </c>
-      <c r="B85" t="s">
-        <v>1468</v>
-      </c>
-      <c r="C85" t="s">
-        <v>1415</v>
-      </c>
-      <c r="D85" t="s">
-        <v>1469</v>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1476</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>1467</v>
-      </c>
-      <c r="B88" t="s">
-        <v>1470</v>
-      </c>
-      <c r="C88" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D88" t="s">
-        <v>1471</v>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1479</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>1472</v>
-      </c>
-      <c r="B91" t="s">
-        <v>1473</v>
-      </c>
-      <c r="C91" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D91" t="s">
-        <v>1474</v>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1482</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>1475</v>
-      </c>
-      <c r="B94" t="s">
-        <v>1476</v>
-      </c>
-      <c r="C94" t="s">
-        <v>1415</v>
-      </c>
-      <c r="D94" t="s">
-        <v>1477</v>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D103" t="s">
+        <v>1485</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>1478</v>
-      </c>
-      <c r="B97" t="s">
-        <v>1479</v>
-      </c>
-      <c r="C97" t="s">
-        <v>1392</v>
-      </c>
-      <c r="D97" t="s">
-        <v>1480</v>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D106" t="s">
+        <v>1488</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>1481</v>
-      </c>
-      <c r="B100" t="s">
-        <v>1482</v>
-      </c>
-      <c r="C100" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D100" t="s">
-        <v>1483</v>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D109" t="s">
+        <v>1490</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>1484</v>
-      </c>
-      <c r="B103" t="s">
-        <v>1485</v>
-      </c>
-      <c r="C103" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D103" t="s">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
         <v>1486</v>
       </c>
+      <c r="B112" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D112" t="s">
+        <v>1492</v>
+      </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>1487</v>
-      </c>
-      <c r="B106" t="s">
-        <v>1488</v>
-      </c>
-      <c r="C106" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D106" t="s">
-        <v>1489</v>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D115" t="s">
+        <v>1495</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>1487</v>
-      </c>
-      <c r="B109" t="s">
-        <v>1490</v>
-      </c>
-      <c r="C109" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D109" t="s">
-        <v>1491</v>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D118" t="s">
+        <v>1498</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>1487</v>
-      </c>
-      <c r="B112" t="s">
-        <v>1492</v>
-      </c>
-      <c r="C112" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D112" t="s">
-        <v>1493</v>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D121" t="s">
+        <v>1500</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>1494</v>
-      </c>
-      <c r="B115" t="s">
-        <v>1495</v>
-      </c>
-      <c r="C115" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D115" t="s">
-        <v>1496</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>1497</v>
-      </c>
-      <c r="B118" t="s">
-        <v>1498</v>
-      </c>
-      <c r="C118" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D118" t="s">
-        <v>1499</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>1497</v>
-      </c>
-      <c r="B121" t="s">
-        <v>1500</v>
-      </c>
-      <c r="C121" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D121" t="s">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
         <v>1501</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="B124" t="s">
         <v>1502</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C124" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D124" t="s">
         <v>1503</v>
-      </c>
-      <c r="C124" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D124" t="s">
-        <v>1504</v>
       </c>
     </row>
   </sheetData>
